--- a/src/python/tmp/full_time_kfold_simulations_JACS.xlsx
+++ b/src/python/tmp/full_time_kfold_simulations_JACS.xlsx
@@ -533,61 +533,61 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>0.03</v>
       </c>
       <c r="G1" s="1">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="H1" s="1">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="I1" s="1">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="J1" s="1">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K1" s="1">
-        <v>7</v>
+        <v>0.08</v>
       </c>
       <c r="L1" s="1">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="M1" s="1">
-        <v>9</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="N1" s="1">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="O1" s="1">
-        <v>11</v>
+        <v>0.3</v>
       </c>
       <c r="P1" s="1">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="Q1" s="1">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="R1" s="1">
-        <v>14</v>
+        <v>0.6</v>
       </c>
       <c r="S1" s="1">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="T1" s="1">
-        <v>16</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="U1" s="1">
-        <v>17</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="V1" s="1">
-        <v>18</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -601,61 +601,61 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>-9.63904980969429</v>
+        <v>-9.765249813079834</v>
       </c>
       <c r="E2">
-        <v>-9.528809835523367</v>
+        <v>-9.584109831314533</v>
       </c>
       <c r="F2">
-        <v>-9.460989847816528</v>
+        <v>-9.592249837696553</v>
       </c>
       <c r="G2">
-        <v>-9.506709849983453</v>
+        <v>-9.522709846168757</v>
       </c>
       <c r="H2">
-        <v>-9.436169857263565</v>
+        <v>-9.482949849903584</v>
       </c>
       <c r="I2">
-        <v>-9.385249847888947</v>
+        <v>-9.377209860682488</v>
       </c>
       <c r="J2">
-        <v>-9.365619857907296</v>
+        <v>-9.411929857254028</v>
       </c>
       <c r="K2">
-        <v>-9.427169852867722</v>
+        <v>-9.380609860360622</v>
       </c>
       <c r="L2">
-        <v>-9.283459861516953</v>
+        <v>-9.485609853029251</v>
       </c>
       <c r="M2">
-        <v>-9.374129853844643</v>
+        <v>-9.469209844827652</v>
       </c>
       <c r="N2">
-        <v>-9.364669854879379</v>
+        <v>-9.298569867491722</v>
       </c>
       <c r="O2">
-        <v>-9.376509854078293</v>
+        <v>-9.394919853329659</v>
       </c>
       <c r="P2">
-        <v>-9.423089851021766</v>
+        <v>-9.394149860024452</v>
       </c>
       <c r="Q2">
-        <v>-9.355229851022363</v>
+        <v>-9.308829855561257</v>
       </c>
       <c r="R2">
-        <v>-9.284229856729507</v>
+        <v>-9.286219856344163</v>
       </c>
       <c r="S2">
-        <v>-9.349039850592613</v>
+        <v>-9.39467984521389</v>
       </c>
       <c r="T2">
-        <v>-9.225669850036502</v>
+        <v>-9.364269840955734</v>
       </c>
       <c r="U2">
-        <v>-9.279169861078262</v>
+        <v>-9.268419852256775</v>
       </c>
       <c r="V2">
-        <v>-9.37698984631896</v>
+        <v>-9.387449838399887</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -669,61 +669,61 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>-9.072329996824264</v>
+        <v>-9.157139965653419</v>
       </c>
       <c r="E3">
-        <v>-9.450540014982224</v>
+        <v>-9.559390012785792</v>
       </c>
       <c r="F3">
-        <v>-9.801780031085014</v>
+        <v>-9.887650030668825</v>
       </c>
       <c r="G3">
-        <v>-10.01627005076408</v>
+        <v>-10.08622004514933</v>
       </c>
       <c r="H3">
-        <v>-10.35313004469872</v>
+        <v>-10.42872005414963</v>
       </c>
       <c r="I3">
-        <v>-10.45683005160093</v>
+        <v>-10.48127006006241</v>
       </c>
       <c r="J3">
-        <v>-10.65159004867077</v>
+        <v>-10.60428007173538</v>
       </c>
       <c r="K3">
-        <v>-10.73207005941868</v>
+        <v>-10.60544004750252</v>
       </c>
       <c r="L3">
-        <v>-10.82002004259825</v>
+        <v>-10.7225300489068</v>
       </c>
       <c r="M3">
-        <v>-10.85242005610466</v>
+        <v>-10.86617004847527</v>
       </c>
       <c r="N3">
-        <v>-11.32123005485535</v>
+        <v>-11.22160006248951</v>
       </c>
       <c r="O3">
-        <v>-11.58869006443024</v>
+        <v>-11.49106004166603</v>
       </c>
       <c r="P3">
-        <v>-11.87989007306099</v>
+        <v>-11.74449005746841</v>
       </c>
       <c r="Q3">
-        <v>-12.00925006556511</v>
+        <v>-11.86802006483078</v>
       </c>
       <c r="R3">
-        <v>-12.06618006467819</v>
+        <v>-11.9429600687027</v>
       </c>
       <c r="S3">
-        <v>-12.2783500688076</v>
+        <v>-12.21068006336689</v>
       </c>
       <c r="T3">
-        <v>-12.44775007128715</v>
+        <v>-12.42578004336357</v>
       </c>
       <c r="U3">
-        <v>-12.62103005838394</v>
+        <v>-12.5799800620079</v>
       </c>
       <c r="V3">
-        <v>-12.71650006842613</v>
+        <v>-12.67240007066727</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -737,61 +737,61 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>-12.35696009159088</v>
+        <v>-12.37067009782791</v>
       </c>
       <c r="E4">
-        <v>-12.35772010183334</v>
+        <v>-12.29268010282516</v>
       </c>
       <c r="F4">
-        <v>-12.35365010213852</v>
+        <v>-12.2898901052475</v>
       </c>
       <c r="G4">
-        <v>-12.26381009960174</v>
+        <v>-12.27567010593414</v>
       </c>
       <c r="H4">
-        <v>-12.23636010360718</v>
+        <v>-12.23627010774612</v>
       </c>
       <c r="I4">
-        <v>-12.18175010251999</v>
+        <v>-12.24676011204719</v>
       </c>
       <c r="J4">
-        <v>-12.24169010972977</v>
+        <v>-12.22575010728836</v>
       </c>
       <c r="K4">
-        <v>-12.1225501036644</v>
+        <v>-12.19269012069702</v>
       </c>
       <c r="L4">
-        <v>-12.1691101102829</v>
+        <v>-12.2137501244545</v>
       </c>
       <c r="M4">
-        <v>-12.19512011003494</v>
+        <v>-12.12959011793137</v>
       </c>
       <c r="N4">
-        <v>-11.98598012208939</v>
+        <v>-11.94513013315201</v>
       </c>
       <c r="O4">
-        <v>-11.95024012231827</v>
+        <v>-11.97152013063431</v>
       </c>
       <c r="P4">
-        <v>-11.91445013093948</v>
+        <v>-11.96229013156891</v>
       </c>
       <c r="Q4">
-        <v>-11.86207012414932</v>
+        <v>-11.92723013067245</v>
       </c>
       <c r="R4">
-        <v>-11.8592301197052</v>
+        <v>-11.90831013679504</v>
       </c>
       <c r="S4">
-        <v>-11.94031011295319</v>
+        <v>-11.91692012357712</v>
       </c>
       <c r="T4">
-        <v>-11.89497010469437</v>
+        <v>-11.93752011299133</v>
       </c>
       <c r="U4">
-        <v>-11.87305010604858</v>
+        <v>-11.9136001124382</v>
       </c>
       <c r="V4">
-        <v>-11.94543010282517</v>
+        <v>-11.91362010622024</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -805,61 +805,61 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>-9.561889982819558</v>
+        <v>-9.48460998223722</v>
       </c>
       <c r="E5">
-        <v>-9.353389946948736</v>
+        <v>-9.20202995033376</v>
       </c>
       <c r="F5">
-        <v>-9.148589932113886</v>
+        <v>-9.00459993442893</v>
       </c>
       <c r="G5">
-        <v>-9.08089992514439</v>
+        <v>-9.05442994326353</v>
       </c>
       <c r="H5">
-        <v>-9.023589923232795</v>
+        <v>-9.1598299305439</v>
       </c>
       <c r="I5">
-        <v>-9.048109926406294</v>
+        <v>-8.937029930114747</v>
       </c>
       <c r="J5">
-        <v>-8.964109934553504</v>
+        <v>-8.939489924311637</v>
       </c>
       <c r="K5">
-        <v>-9.040199932545423</v>
+        <v>-8.986549922585487</v>
       </c>
       <c r="L5">
-        <v>-9.102699913501739</v>
+        <v>-9.004379920482636</v>
       </c>
       <c r="M5">
-        <v>-9.002699926733971</v>
+        <v>-8.883489919036627</v>
       </c>
       <c r="N5">
-        <v>-8.883969929665327</v>
+        <v>-8.923699934825301</v>
       </c>
       <c r="O5">
-        <v>-8.946299914717674</v>
+        <v>-8.861349920544773</v>
       </c>
       <c r="P5">
-        <v>-8.963049915283918</v>
+        <v>-8.857509913293645</v>
       </c>
       <c r="Q5">
-        <v>-8.862109923303127</v>
+        <v>-8.925359925672412</v>
       </c>
       <c r="R5">
-        <v>-8.975029924007133</v>
+        <v>-8.938379917681218</v>
       </c>
       <c r="S5">
-        <v>-8.78524992698431</v>
+        <v>-8.976879926472902</v>
       </c>
       <c r="T5">
-        <v>-8.9350299276039</v>
+        <v>-8.789009930014611</v>
       </c>
       <c r="U5">
-        <v>-8.801959921330214</v>
+        <v>-8.878799914777279</v>
       </c>
       <c r="V5">
-        <v>-8.943559912919998</v>
+        <v>-8.9564999178648</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -873,61 +873,61 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>-10.37978993672133</v>
+        <v>-10.24425994199514</v>
       </c>
       <c r="E6">
-        <v>-11.40031987985969</v>
+        <v>-11.44962987798452</v>
       </c>
       <c r="F6">
-        <v>-12.29273982992768</v>
+        <v>-12.40169984602928</v>
       </c>
       <c r="G6">
-        <v>-12.72750980996154</v>
+        <v>-12.73439981034398</v>
       </c>
       <c r="H6">
-        <v>-13.00038980472088</v>
+        <v>-12.90466981291771</v>
       </c>
       <c r="I6">
-        <v>-13.20597978615761</v>
+        <v>-13.23728980541229</v>
       </c>
       <c r="J6">
-        <v>-13.32527979397774</v>
+        <v>-13.34401980280876</v>
       </c>
       <c r="K6">
-        <v>-13.35834980362654</v>
+        <v>-13.48428978681564</v>
       </c>
       <c r="L6">
-        <v>-13.51374981164932</v>
+        <v>-13.58220980930328</v>
       </c>
       <c r="M6">
-        <v>-13.65487980015576</v>
+        <v>-13.60755980110168</v>
       </c>
       <c r="N6">
-        <v>-14.09660976314545</v>
+        <v>-14.05504977095127</v>
       </c>
       <c r="O6">
-        <v>-14.28597979831695</v>
+        <v>-14.19475979113579</v>
       </c>
       <c r="P6">
-        <v>-14.37194977927208</v>
+        <v>-14.39097977590561</v>
       </c>
       <c r="Q6">
-        <v>-14.45832976865768</v>
+        <v>-14.43307976961136</v>
       </c>
       <c r="R6">
-        <v>-14.52828975868225</v>
+        <v>-14.49805976486206</v>
       </c>
       <c r="S6">
-        <v>-14.57222977209091</v>
+        <v>-14.56938977622986</v>
       </c>
       <c r="T6">
-        <v>-14.62071976339817</v>
+        <v>-14.58056978845596</v>
       </c>
       <c r="U6">
-        <v>-14.78829972934723</v>
+        <v>-14.57109976148605</v>
       </c>
       <c r="V6">
-        <v>-14.74934974622726</v>
+        <v>-14.72528976368904</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -941,61 +941,61 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>-9.321699987351895</v>
+        <v>-9.273400003314018</v>
       </c>
       <c r="E7">
-        <v>-9.099959960639477</v>
+        <v>-9.378729960277676</v>
       </c>
       <c r="F7">
-        <v>-9.255579949021339</v>
+        <v>-9.232679961681367</v>
       </c>
       <c r="G7">
-        <v>-9.177809951081873</v>
+        <v>-9.447029950901866</v>
       </c>
       <c r="H7">
-        <v>-9.330399943172932</v>
+        <v>-9.385709949731826</v>
       </c>
       <c r="I7">
-        <v>-9.497379938028752</v>
+        <v>-9.701769936654717</v>
       </c>
       <c r="J7">
-        <v>-9.564849951550364</v>
+        <v>-9.702779939129949</v>
       </c>
       <c r="K7">
-        <v>-9.785969958811998</v>
+        <v>-9.780169943332671</v>
       </c>
       <c r="L7">
-        <v>-9.868279956400395</v>
+        <v>-9.915399954512715</v>
       </c>
       <c r="M7">
-        <v>-9.890529961705209</v>
+        <v>-10.14817994835973</v>
       </c>
       <c r="N7">
-        <v>-10.86189995324612</v>
+        <v>-10.78127996444702</v>
       </c>
       <c r="O7">
-        <v>-11.39076995682716</v>
+        <v>-11.20903996306658</v>
       </c>
       <c r="P7">
-        <v>-11.89149994510412</v>
+        <v>-11.74920995893329</v>
       </c>
       <c r="Q7">
-        <v>-12.18504995065928</v>
+        <v>-12.03785996174812</v>
       </c>
       <c r="R7">
-        <v>-12.42004995119572</v>
+        <v>-12.2017399532795</v>
       </c>
       <c r="S7">
-        <v>-12.46922995276377</v>
+        <v>-12.42048995923996</v>
       </c>
       <c r="T7">
-        <v>-12.6389599313736</v>
+        <v>-12.61295996558666</v>
       </c>
       <c r="U7">
-        <v>-12.7949399394989</v>
+        <v>-12.66737994623184</v>
       </c>
       <c r="V7">
-        <v>-12.8866299425438</v>
+        <v>-12.75373996680975</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1009,61 +1009,61 @@
         <v>41</v>
       </c>
       <c r="D8">
-        <v>-9.449329822421074</v>
+        <v>-9.465709821552037</v>
       </c>
       <c r="E8">
-        <v>-9.312239839397371</v>
+        <v>-9.224799849331379</v>
       </c>
       <c r="F8">
-        <v>-9.203499854624271</v>
+        <v>-9.144559848666191</v>
       </c>
       <c r="G8">
-        <v>-9.159039857387542</v>
+        <v>-9.020039876312017</v>
       </c>
       <c r="H8">
-        <v>-9.025369866572321</v>
+        <v>-9.071369874536991</v>
       </c>
       <c r="I8">
-        <v>-9.11295985493064</v>
+        <v>-9.005699876368046</v>
       </c>
       <c r="J8">
-        <v>-9.075169865548611</v>
+        <v>-8.979799876630306</v>
       </c>
       <c r="K8">
-        <v>-8.982209869682789</v>
+        <v>-9.000039870858192</v>
       </c>
       <c r="L8">
-        <v>-9.034439864993095</v>
+        <v>-9.039559863612055</v>
       </c>
       <c r="M8">
-        <v>-9.001469872057438</v>
+        <v>-9.021919866155834</v>
       </c>
       <c r="N8">
-        <v>-8.826869871973992</v>
+        <v>-8.920439883112907</v>
       </c>
       <c r="O8">
-        <v>-8.928249874472618</v>
+        <v>-8.926839868187905</v>
       </c>
       <c r="P8">
-        <v>-9.030639863550663</v>
+        <v>-9.008909863114358</v>
       </c>
       <c r="Q8">
-        <v>-8.825639865398408</v>
+        <v>-8.94581985527277</v>
       </c>
       <c r="R8">
-        <v>-8.975179864455015</v>
+        <v>-8.89445987379551</v>
       </c>
       <c r="S8">
-        <v>-8.89439987115562</v>
+        <v>-8.961319868035615</v>
       </c>
       <c r="T8">
-        <v>-8.893549865499139</v>
+        <v>-8.925069867134095</v>
       </c>
       <c r="U8">
-        <v>-8.91473986929655</v>
+        <v>-8.981849868237973</v>
       </c>
       <c r="V8">
-        <v>-8.852549866616727</v>
+        <v>-9.039259856641293</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1077,61 +1077,61 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>-9.664579963326455</v>
+        <v>-9.622589957447722</v>
       </c>
       <c r="E9">
-        <v>-10.3928400387764</v>
+        <v>-10.08583003570139</v>
       </c>
       <c r="F9">
-        <v>-10.75275008255243</v>
+        <v>-10.53131008043699</v>
       </c>
       <c r="G9">
-        <v>-11.18315010845661</v>
+        <v>-10.83385009324551</v>
       </c>
       <c r="H9">
-        <v>-11.52345013275743</v>
+        <v>-11.1069701012373</v>
       </c>
       <c r="I9">
-        <v>-11.86150013941526</v>
+        <v>-11.33316012401879</v>
       </c>
       <c r="J9">
-        <v>-12.07768014907837</v>
+        <v>-11.69843011963367</v>
       </c>
       <c r="K9">
-        <v>-12.27569016380608</v>
+        <v>-11.91975015284121</v>
       </c>
       <c r="L9">
-        <v>-12.50094018246233</v>
+        <v>-12.12494015449285</v>
       </c>
       <c r="M9">
-        <v>-12.74118018460274</v>
+        <v>-12.31682016003132</v>
       </c>
       <c r="N9">
-        <v>-13.84386023879051</v>
+        <v>-13.54440019607544</v>
       </c>
       <c r="O9">
-        <v>-14.36781023308635</v>
+        <v>-14.11074022269249</v>
       </c>
       <c r="P9">
-        <v>-14.81278027158976</v>
+        <v>-14.4884602458477</v>
       </c>
       <c r="Q9">
-        <v>-15.04713026857376</v>
+        <v>-14.85146025919914</v>
       </c>
       <c r="R9">
-        <v>-15.34145027494431</v>
+        <v>-15.14442026615143</v>
       </c>
       <c r="S9">
-        <v>-15.36693026304245</v>
+        <v>-15.18511026763916</v>
       </c>
       <c r="T9">
-        <v>-15.60115029680729</v>
+        <v>-15.35399027061462</v>
       </c>
       <c r="U9">
-        <v>-15.69073028349876</v>
+        <v>-15.44585029494762</v>
       </c>
       <c r="V9">
-        <v>-15.82193030309677</v>
+        <v>-15.67386029815674</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1145,61 +1145,61 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>-11.03456996250152</v>
+        <v>-10.96064996695518</v>
       </c>
       <c r="E10">
-        <v>-11.254669942379</v>
+        <v>-11.28494993519783</v>
       </c>
       <c r="F10">
-        <v>-11.36494991230965</v>
+        <v>-11.39988992953301</v>
       </c>
       <c r="G10">
-        <v>-11.50744992017746</v>
+        <v>-11.59270992779732</v>
       </c>
       <c r="H10">
-        <v>-11.64168992042542</v>
+        <v>-11.67490993499756</v>
       </c>
       <c r="I10">
-        <v>-11.72161992931366</v>
+        <v>-11.74235994839668</v>
       </c>
       <c r="J10">
-        <v>-11.78825992918014</v>
+        <v>-11.79767994308472</v>
       </c>
       <c r="K10">
-        <v>-11.80835994052887</v>
+        <v>-11.83358993339539</v>
       </c>
       <c r="L10">
-        <v>-11.96711993503571</v>
+        <v>-11.84281993627548</v>
       </c>
       <c r="M10">
-        <v>-12.00454994153976</v>
+        <v>-11.96643993806839</v>
       </c>
       <c r="N10">
-        <v>-12.14404994797707</v>
+        <v>-12.11994994950295</v>
       </c>
       <c r="O10">
-        <v>-12.23128995084762</v>
+        <v>-12.28168995499611</v>
       </c>
       <c r="P10">
-        <v>-12.26616995644569</v>
+        <v>-12.21405994939804</v>
       </c>
       <c r="Q10">
-        <v>-12.33855994796753</v>
+        <v>-12.32916996908188</v>
       </c>
       <c r="R10">
-        <v>-12.29729996061325</v>
+        <v>-12.30081995749474</v>
       </c>
       <c r="S10">
-        <v>-12.27673995828629</v>
+        <v>-12.34391996574402</v>
       </c>
       <c r="T10">
-        <v>-12.24028996086121</v>
+        <v>-12.35814997053146</v>
       </c>
       <c r="U10">
-        <v>-12.28809996414185</v>
+        <v>-12.30009996390343</v>
       </c>
       <c r="V10">
-        <v>-12.36859996557236</v>
+        <v>-12.33624997067452</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1213,61 +1213,61 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>-9.353559834957123</v>
+        <v>-9.32779983341694</v>
       </c>
       <c r="E11">
-        <v>-9.082529855012893</v>
+        <v>-9.247099846392869</v>
       </c>
       <c r="F11">
-        <v>-9.138689865350724</v>
+        <v>-9.112199858903885</v>
       </c>
       <c r="G11">
-        <v>-9.106989875376225</v>
+        <v>-9.086609869122505</v>
       </c>
       <c r="H11">
-        <v>-9.021119886890054</v>
+        <v>-8.989709868617355</v>
       </c>
       <c r="I11">
-        <v>-8.885499892830849</v>
+        <v>-8.933239872097969</v>
       </c>
       <c r="J11">
-        <v>-8.795479887962342</v>
+        <v>-8.809669887304306</v>
       </c>
       <c r="K11">
-        <v>-8.929729889571666</v>
+        <v>-8.72392988872528</v>
       </c>
       <c r="L11">
-        <v>-8.779709894627333</v>
+        <v>-8.858859891295433</v>
       </c>
       <c r="M11">
-        <v>-8.727849904716015</v>
+        <v>-8.838149893164635</v>
       </c>
       <c r="N11">
-        <v>-8.827589904107153</v>
+        <v>-8.772199907273054</v>
       </c>
       <c r="O11">
-        <v>-8.777559903621674</v>
+        <v>-8.758159909009933</v>
       </c>
       <c r="P11">
-        <v>-8.900499895393848</v>
+        <v>-8.74088991111517</v>
       </c>
       <c r="Q11">
-        <v>-8.744089909136296</v>
+        <v>-8.627269920658319</v>
       </c>
       <c r="R11">
-        <v>-8.798479915618897</v>
+        <v>-8.693789917945862</v>
       </c>
       <c r="S11">
-        <v>-8.809009915202855</v>
+        <v>-8.764999907538295</v>
       </c>
       <c r="T11">
-        <v>-8.809839918226004</v>
+        <v>-8.789439905524254</v>
       </c>
       <c r="U11">
-        <v>-8.860559917926789</v>
+        <v>-8.769609913110733</v>
       </c>
       <c r="V11">
-        <v>-8.727569913744926</v>
+        <v>-8.838329909086227</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1281,61 +1281,61 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>-9.613209954559803</v>
+        <v>-9.475039951056242</v>
       </c>
       <c r="E12">
-        <v>-10.37531003093719</v>
+        <v>-10.32976002842188</v>
       </c>
       <c r="F12">
-        <v>-10.94462006914616</v>
+        <v>-10.86134005439281</v>
       </c>
       <c r="G12">
-        <v>-11.1321800904274</v>
+        <v>-11.25397008061409</v>
       </c>
       <c r="H12">
-        <v>-11.33617008978128</v>
+        <v>-11.46559010243416</v>
       </c>
       <c r="I12">
-        <v>-11.51979008507729</v>
+        <v>-11.72809009766579</v>
       </c>
       <c r="J12">
-        <v>-11.79310010617971</v>
+        <v>-11.81135009515286</v>
       </c>
       <c r="K12">
-        <v>-11.81915011453628</v>
+        <v>-12.01489010834694</v>
       </c>
       <c r="L12">
-        <v>-12.06673012596369</v>
+        <v>-12.17405013537407</v>
       </c>
       <c r="M12">
-        <v>-12.11002012085915</v>
+        <v>-12.22915013790131</v>
       </c>
       <c r="N12">
-        <v>-13.00277014565468</v>
+        <v>-12.94421017575264</v>
       </c>
       <c r="O12">
-        <v>-13.39634017086029</v>
+        <v>-13.2650401596725</v>
       </c>
       <c r="P12">
-        <v>-13.67542018532753</v>
+        <v>-13.60833019304276</v>
       </c>
       <c r="Q12">
-        <v>-13.80264016985893</v>
+        <v>-13.79592018461227</v>
       </c>
       <c r="R12">
-        <v>-13.98578018760681</v>
+        <v>-13.989140178442</v>
       </c>
       <c r="S12">
-        <v>-14.16451019853353</v>
+        <v>-14.01122018074989</v>
       </c>
       <c r="T12">
-        <v>-14.31215022325516</v>
+        <v>-14.13590020847321</v>
       </c>
       <c r="U12">
-        <v>-14.35143020749092</v>
+        <v>-14.21712020373344</v>
       </c>
       <c r="V12">
-        <v>-14.49436023378372</v>
+        <v>-14.33523019647598</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1349,61 +1349,61 @@
         <v>43</v>
       </c>
       <c r="D13">
-        <v>-9.279899840150028</v>
+        <v>-9.221789854615928</v>
       </c>
       <c r="E13">
-        <v>-8.943789907962083</v>
+        <v>-8.885999901622533</v>
       </c>
       <c r="F13">
-        <v>-8.93608992755413</v>
+        <v>-8.795789932131767</v>
       </c>
       <c r="G13">
-        <v>-8.915809944480658</v>
+        <v>-8.867479954183102</v>
       </c>
       <c r="H13">
-        <v>-8.76523996308446</v>
+        <v>-8.684859966397285</v>
       </c>
       <c r="I13">
-        <v>-8.822829962208868</v>
+        <v>-8.896359969727696</v>
       </c>
       <c r="J13">
-        <v>-8.776999986231328</v>
+        <v>-8.718439984917641</v>
       </c>
       <c r="K13">
-        <v>-8.685309988677501</v>
+        <v>-8.923500005453825</v>
       </c>
       <c r="L13">
-        <v>-8.861939994335174</v>
+        <v>-8.99281998538971</v>
       </c>
       <c r="M13">
-        <v>-8.845430003600194</v>
+        <v>-8.87503001537919</v>
       </c>
       <c r="N13">
-        <v>-9.304010026201606</v>
+        <v>-9.411320029795171</v>
       </c>
       <c r="O13">
-        <v>-9.537840041041374</v>
+        <v>-9.605290042325855</v>
       </c>
       <c r="P13">
-        <v>-9.906450036942958</v>
+        <v>-9.827960035085678</v>
       </c>
       <c r="Q13">
-        <v>-10.05597003543377</v>
+        <v>-10.12204003083706</v>
       </c>
       <c r="R13">
-        <v>-10.38450003838539</v>
+        <v>-10.33103004615381</v>
       </c>
       <c r="S13">
-        <v>-10.53967003583908</v>
+        <v>-10.67321003806591</v>
       </c>
       <c r="T13">
-        <v>-10.78847004723549</v>
+        <v>-10.77931004524231</v>
       </c>
       <c r="U13">
-        <v>-10.92988003212213</v>
+        <v>-10.8376200479269</v>
       </c>
       <c r="V13">
-        <v>-11.1387300388813</v>
+        <v>-11.07746005678177</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1417,61 +1417,61 @@
         <v>44</v>
       </c>
       <c r="D14">
-        <v>-9.014239841520787</v>
+        <v>-9.028719841718674</v>
       </c>
       <c r="E14">
-        <v>-8.930439853429794</v>
+        <v>-8.93090985673666</v>
       </c>
       <c r="F14">
-        <v>-8.783189868450165</v>
+        <v>-8.732339879512788</v>
       </c>
       <c r="G14">
-        <v>-8.662399875700475</v>
+        <v>-8.732779883205891</v>
       </c>
       <c r="H14">
-        <v>-8.626579877138138</v>
+        <v>-8.614699889831245</v>
       </c>
       <c r="I14">
-        <v>-8.555659885644912</v>
+        <v>-8.484639901399612</v>
       </c>
       <c r="J14">
-        <v>-8.560259888246655</v>
+        <v>-8.543279887735844</v>
       </c>
       <c r="K14">
-        <v>-8.419359904110431</v>
+        <v>-8.453229895830155</v>
       </c>
       <c r="L14">
-        <v>-8.502099896967412</v>
+        <v>-8.483349892713129</v>
       </c>
       <c r="M14">
-        <v>-8.479099903702735</v>
+        <v>-8.442899894684553</v>
       </c>
       <c r="N14">
-        <v>-8.446999900152907</v>
+        <v>-8.47421990287304</v>
       </c>
       <c r="O14">
-        <v>-8.440259904734789</v>
+        <v>-8.449499889671802</v>
       </c>
       <c r="P14">
-        <v>-8.343929896444083</v>
+        <v>-8.452779890060425</v>
       </c>
       <c r="Q14">
-        <v>-8.425619915172458</v>
+        <v>-8.261849913433194</v>
       </c>
       <c r="R14">
-        <v>-8.428509897708892</v>
+        <v>-8.385469910502433</v>
       </c>
       <c r="S14">
-        <v>-8.437289903338998</v>
+        <v>-8.299489908248185</v>
       </c>
       <c r="T14">
-        <v>-8.392419909477233</v>
+        <v>-8.456529901623727</v>
       </c>
       <c r="U14">
-        <v>-8.425099899306893</v>
+        <v>-8.390679915048182</v>
       </c>
       <c r="V14">
-        <v>-8.361029900971801</v>
+        <v>-8.407099901124836</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1485,61 +1485,61 @@
         <v>44</v>
       </c>
       <c r="D15">
-        <v>-11.2189299248457</v>
+        <v>-11.08881993591785</v>
       </c>
       <c r="E15">
-        <v>-12.96758002305031</v>
+        <v>-12.8580700160563</v>
       </c>
       <c r="F15">
-        <v>-14.12448006510735</v>
+        <v>-14.09278006160259</v>
       </c>
       <c r="G15">
-        <v>-14.9317400996685</v>
+        <v>-14.91430008769035</v>
       </c>
       <c r="H15">
-        <v>-15.45041011995077</v>
+        <v>-15.41848011633754</v>
       </c>
       <c r="I15">
-        <v>-15.72694012618065</v>
+        <v>-15.71134012460709</v>
       </c>
       <c r="J15">
-        <v>-15.88245011663437</v>
+        <v>-15.94382012486458</v>
       </c>
       <c r="K15">
-        <v>-16.16246014523506</v>
+        <v>-15.997930134058</v>
       </c>
       <c r="L15">
-        <v>-16.18625012016296</v>
+        <v>-16.08455012750625</v>
       </c>
       <c r="M15">
-        <v>-16.27952013957501</v>
+        <v>-16.16165013480186</v>
       </c>
       <c r="N15">
-        <v>-16.44236014890671</v>
+        <v>-16.38226012325287</v>
       </c>
       <c r="O15">
-        <v>-16.54279014062881</v>
+        <v>-16.48009014177322</v>
       </c>
       <c r="P15">
-        <v>-16.4170101313591</v>
+        <v>-16.58237017631531</v>
       </c>
       <c r="Q15">
-        <v>-16.58486015033722</v>
+        <v>-16.55166015386581</v>
       </c>
       <c r="R15">
-        <v>-16.63568015813827</v>
+        <v>-16.5843901553154</v>
       </c>
       <c r="S15">
-        <v>-16.63978014755249</v>
+        <v>-16.62080015039444</v>
       </c>
       <c r="T15">
-        <v>-16.63184013414383</v>
+        <v>-16.51424014759064</v>
       </c>
       <c r="U15">
-        <v>-16.67573015785217</v>
+        <v>-16.53543013715744</v>
       </c>
       <c r="V15">
-        <v>-16.68261015415192</v>
+        <v>-16.53839015293121</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1553,61 +1553,61 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>-9.135689901448787</v>
+        <v>-9.016419913053513</v>
       </c>
       <c r="E16">
-        <v>-9.398539941191673</v>
+        <v>-9.356669954538345</v>
       </c>
       <c r="F16">
-        <v>-9.496379976689816</v>
+        <v>-9.520979983516037</v>
       </c>
       <c r="G16">
-        <v>-9.82275999262929</v>
+        <v>-9.822590000092983</v>
       </c>
       <c r="H16">
-        <v>-9.935360007733106</v>
+        <v>-10.07948000782728</v>
       </c>
       <c r="I16">
-        <v>-10.11317002226412</v>
+        <v>-10.28215001511574</v>
       </c>
       <c r="J16">
-        <v>-10.34362001311779</v>
+        <v>-10.29793002705276</v>
       </c>
       <c r="K16">
-        <v>-10.30402003753185</v>
+        <v>-10.54842003697157</v>
       </c>
       <c r="L16">
-        <v>-10.49296004101634</v>
+        <v>-10.59553003507853</v>
       </c>
       <c r="M16">
-        <v>-10.49464004099369</v>
+        <v>-10.69114004182816</v>
       </c>
       <c r="N16">
-        <v>-11.1546700835824</v>
+        <v>-11.24866007137298</v>
       </c>
       <c r="O16">
-        <v>-11.42661009240151</v>
+        <v>-11.57921009528637</v>
       </c>
       <c r="P16">
-        <v>-11.72384010529518</v>
+        <v>-11.79245010343194</v>
       </c>
       <c r="Q16">
-        <v>-12.01346011734009</v>
+        <v>-11.97348011517525</v>
       </c>
       <c r="R16">
-        <v>-12.10186012077332</v>
+        <v>-12.03984011936188</v>
       </c>
       <c r="S16">
-        <v>-12.08186012005806</v>
+        <v>-12.20119013023377</v>
       </c>
       <c r="T16">
-        <v>-12.25020009756088</v>
+        <v>-12.27906011867523</v>
       </c>
       <c r="U16">
-        <v>-12.27482011938095</v>
+        <v>-12.3577101380825</v>
       </c>
       <c r="V16">
-        <v>-12.30415012717247</v>
+        <v>-12.41536014056206</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1621,61 +1621,61 @@
         <v>45</v>
       </c>
       <c r="D17">
-        <v>-8.957049851298333</v>
+        <v>-9.090649839043618</v>
       </c>
       <c r="E17">
-        <v>-8.780149878039957</v>
+        <v>-8.89296986670047</v>
       </c>
       <c r="F17">
-        <v>-8.752699880480765</v>
+        <v>-8.829309881567955</v>
       </c>
       <c r="G17">
-        <v>-8.702539893880486</v>
+        <v>-8.639779900372028</v>
       </c>
       <c r="H17">
-        <v>-8.701799896299839</v>
+        <v>-8.556909904897212</v>
       </c>
       <c r="I17">
-        <v>-8.630479907244444</v>
+        <v>-8.520869918107987</v>
       </c>
       <c r="J17">
-        <v>-8.524629926234484</v>
+        <v>-8.459829926759005</v>
       </c>
       <c r="K17">
-        <v>-8.48614992072992</v>
+        <v>-8.542819918453693</v>
       </c>
       <c r="L17">
-        <v>-8.446719922661782</v>
+        <v>-8.623369923293591</v>
       </c>
       <c r="M17">
-        <v>-8.614019917488099</v>
+        <v>-8.488039933480323</v>
       </c>
       <c r="N17">
-        <v>-8.344599932849407</v>
+        <v>-8.49769994366169</v>
       </c>
       <c r="O17">
-        <v>-8.35090994977951</v>
+        <v>-8.449299942595884</v>
       </c>
       <c r="P17">
-        <v>-8.467949948310853</v>
+        <v>-8.28951996153593</v>
       </c>
       <c r="Q17">
-        <v>-8.329359960496426</v>
+        <v>-8.36306996923685</v>
       </c>
       <c r="R17">
-        <v>-8.341169969797134</v>
+        <v>-8.307569967508316</v>
       </c>
       <c r="S17">
-        <v>-8.38540996029228</v>
+        <v>-8.272989965915681</v>
       </c>
       <c r="T17">
-        <v>-8.346319978833199</v>
+        <v>-8.297119975626469</v>
       </c>
       <c r="U17">
-        <v>-8.402949989089743</v>
+        <v>-8.349839972048997</v>
       </c>
       <c r="V17">
-        <v>-8.158449980437755</v>
+        <v>-8.336999973773956</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1689,61 +1689,61 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>-9.55514987364225</v>
+        <v>-9.492779885590076</v>
       </c>
       <c r="E18">
-        <v>-10.5994499027133</v>
+        <v>-10.30800990438461</v>
       </c>
       <c r="F18">
-        <v>-11.04114990448952</v>
+        <v>-10.94000988818705</v>
       </c>
       <c r="G18">
-        <v>-11.38280989855528</v>
+        <v>-11.26807990849018</v>
       </c>
       <c r="H18">
-        <v>-11.58046989479661</v>
+        <v>-11.71429989075661</v>
       </c>
       <c r="I18">
-        <v>-11.89370989531279</v>
+        <v>-11.9268998966217</v>
       </c>
       <c r="J18">
-        <v>-12.03601990389824</v>
+        <v>-12.2532598913908</v>
       </c>
       <c r="K18">
-        <v>-12.24014990627766</v>
+        <v>-12.38489988994598</v>
       </c>
       <c r="L18">
-        <v>-12.31276990902424</v>
+        <v>-12.53601989758015</v>
       </c>
       <c r="M18">
-        <v>-12.44454991012812</v>
+        <v>-12.6697599029541</v>
       </c>
       <c r="N18">
-        <v>-12.98422990393639</v>
+        <v>-13.31983989955485</v>
       </c>
       <c r="O18">
-        <v>-13.21996989154816</v>
+        <v>-13.53315989089012</v>
       </c>
       <c r="P18">
-        <v>-13.38496988677979</v>
+        <v>-13.66068988370895</v>
       </c>
       <c r="Q18">
-        <v>-13.50492989015579</v>
+        <v>-13.81584988808632</v>
       </c>
       <c r="R18">
-        <v>-13.65326986980438</v>
+        <v>-13.82976987600327</v>
       </c>
       <c r="S18">
-        <v>-13.70791989219189</v>
+        <v>-13.88541988921165</v>
       </c>
       <c r="T18">
-        <v>-13.74552988398075</v>
+        <v>-13.91597987604141</v>
       </c>
       <c r="U18">
-        <v>-13.91376987671852</v>
+        <v>-14.06373987627029</v>
       </c>
       <c r="V18">
-        <v>-13.85743988656998</v>
+        <v>-14.22991987657547</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1757,61 +1757,61 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>-9.089119850933551</v>
+        <v>-9.192109842598438</v>
       </c>
       <c r="E19">
-        <v>-9.050259880498052</v>
+        <v>-8.903229891836643</v>
       </c>
       <c r="F19">
-        <v>-8.951349907979369</v>
+        <v>-9.036939920790493</v>
       </c>
       <c r="G19">
-        <v>-8.932899939417839</v>
+        <v>-9.075789942413568</v>
       </c>
       <c r="H19">
-        <v>-9.222809947669505</v>
+        <v>-9.143399956300854</v>
       </c>
       <c r="I19">
-        <v>-9.185759956955909</v>
+        <v>-9.244429963245988</v>
       </c>
       <c r="J19">
-        <v>-9.237049951314926</v>
+        <v>-9.226119982600212</v>
       </c>
       <c r="K19">
-        <v>-9.356819974511861</v>
+        <v>-9.471099981486798</v>
       </c>
       <c r="L19">
-        <v>-9.427709976375104</v>
+        <v>-9.50573997464776</v>
       </c>
       <c r="M19">
-        <v>-9.486689975053071</v>
+        <v>-9.600429985344411</v>
       </c>
       <c r="N19">
-        <v>-10.2743899795413</v>
+        <v>-10.35621001011133</v>
       </c>
       <c r="O19">
-        <v>-10.77261998414993</v>
+        <v>-10.90133999943733</v>
       </c>
       <c r="P19">
-        <v>-11.18021999108791</v>
+        <v>-11.10843997859955</v>
       </c>
       <c r="Q19">
-        <v>-11.3790999956131</v>
+        <v>-11.47576999497414</v>
       </c>
       <c r="R19">
-        <v>-11.59268999290466</v>
+        <v>-11.68975000220537</v>
       </c>
       <c r="S19">
-        <v>-11.85985998749733</v>
+        <v>-11.73452001079917</v>
       </c>
       <c r="T19">
-        <v>-11.97360999250412</v>
+        <v>-11.88410999035835</v>
       </c>
       <c r="U19">
-        <v>-12.11159000706673</v>
+        <v>-12.00047000169754</v>
       </c>
       <c r="V19">
-        <v>-12.06252000236511</v>
+        <v>-12.10418999814987</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1825,61 +1825,61 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>-7.105939868979156</v>
+        <v>-7.132959869921208</v>
       </c>
       <c r="E20">
-        <v>-6.77269993954897</v>
+        <v>-6.854159931637347</v>
       </c>
       <c r="F20">
-        <v>-6.793179949820042</v>
+        <v>-6.772529963929206</v>
       </c>
       <c r="G20">
-        <v>-6.492969979848713</v>
+        <v>-6.678779980808496</v>
       </c>
       <c r="H20">
-        <v>-6.446279997222126</v>
+        <v>-6.470809994185343</v>
       </c>
       <c r="I20">
-        <v>-6.455359999403358</v>
+        <v>-6.422090007616207</v>
       </c>
       <c r="J20">
-        <v>-6.405760010406375</v>
+        <v>-6.430810016609728</v>
       </c>
       <c r="K20">
-        <v>-6.510900017015636</v>
+        <v>-6.402110016874969</v>
       </c>
       <c r="L20">
-        <v>-6.569380016699434</v>
+        <v>-6.419900022819638</v>
       </c>
       <c r="M20">
-        <v>-6.53212002594769</v>
+        <v>-6.353370033629239</v>
       </c>
       <c r="N20">
-        <v>-6.330230030020699</v>
+        <v>-6.450480027044192</v>
       </c>
       <c r="O20">
-        <v>-6.36860002976656</v>
+        <v>-6.381860035646707</v>
       </c>
       <c r="P20">
-        <v>-6.40048003167659</v>
+        <v>-6.434550038013607</v>
       </c>
       <c r="Q20">
-        <v>-6.34086003999412</v>
+        <v>-6.497220050245524</v>
       </c>
       <c r="R20">
-        <v>-6.351480026556179</v>
+        <v>-6.548030044279993</v>
       </c>
       <c r="S20">
-        <v>-6.408530026078224</v>
+        <v>-6.462890036605298</v>
       </c>
       <c r="T20">
-        <v>-6.525810034006834</v>
+        <v>-6.477040027298033</v>
       </c>
       <c r="U20">
-        <v>-6.444080043133348</v>
+        <v>-6.398640038326382</v>
       </c>
       <c r="V20">
-        <v>-6.42006003767252</v>
+        <v>-6.45770003801398</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1893,61 +1893,61 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>-7.92197993760556</v>
+        <v>-8.092449926378205</v>
       </c>
       <c r="E21">
-        <v>-8.744779965067282</v>
+        <v>-9.214139938034117</v>
       </c>
       <c r="F21">
-        <v>-9.198679965913296</v>
+        <v>-9.79224995417893</v>
       </c>
       <c r="G21">
-        <v>-9.632379959808663</v>
+        <v>-10.18447995208949</v>
       </c>
       <c r="H21">
-        <v>-9.800979947958142</v>
+        <v>-10.45790993816778</v>
       </c>
       <c r="I21">
-        <v>-10.06280995051935</v>
+        <v>-10.61929993745685</v>
       </c>
       <c r="J21">
-        <v>-10.3140699689202</v>
+        <v>-10.91122994270921</v>
       </c>
       <c r="K21">
-        <v>-10.42700995272398</v>
+        <v>-11.1579699258972</v>
       </c>
       <c r="L21">
-        <v>-10.42383994176611</v>
+        <v>-11.20689993029833</v>
       </c>
       <c r="M21">
-        <v>-10.62315993076563</v>
+        <v>-11.34880993521586</v>
       </c>
       <c r="N21">
-        <v>-11.5136099344939</v>
+        <v>-12.32223993311077</v>
       </c>
       <c r="O21">
-        <v>-12.10572992552817</v>
+        <v>-12.90620991694927</v>
       </c>
       <c r="P21">
-        <v>-12.81257992227376</v>
+        <v>-13.31833990004659</v>
       </c>
       <c r="Q21">
-        <v>-13.23661991583556</v>
+        <v>-13.60102990099788</v>
       </c>
       <c r="R21">
-        <v>-13.48188989497721</v>
+        <v>-14.12655992323905</v>
       </c>
       <c r="S21">
-        <v>-13.87689989252947</v>
+        <v>-14.30003990703821</v>
       </c>
       <c r="T21">
-        <v>-14.15759989912808</v>
+        <v>-14.54224989539385</v>
       </c>
       <c r="U21">
-        <v>-14.47027989912033</v>
+        <v>-14.93300990700722</v>
       </c>
       <c r="V21">
-        <v>-14.77824990364909</v>
+        <v>-15.06189989584684</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1961,61 +1961,61 @@
         <v>46</v>
       </c>
       <c r="D22">
-        <v>-6.643299910575151</v>
+        <v>-6.740059908531606</v>
       </c>
       <c r="E22">
-        <v>-6.438209960058331</v>
+        <v>-6.427319971229881</v>
       </c>
       <c r="F22">
-        <v>-6.327589992629364</v>
+        <v>-6.356079971468076</v>
       </c>
       <c r="G22">
-        <v>-6.403229984980077</v>
+        <v>-6.353729997754097</v>
       </c>
       <c r="H22">
-        <v>-6.240610002782196</v>
+        <v>-6.300640006378293</v>
       </c>
       <c r="I22">
-        <v>-6.370340005598963</v>
+        <v>-6.347630011960864</v>
       </c>
       <c r="J22">
-        <v>-6.286550011217594</v>
+        <v>-6.417570012286306</v>
       </c>
       <c r="K22">
-        <v>-6.400600015372038</v>
+        <v>-6.498990015959367</v>
       </c>
       <c r="L22">
-        <v>-6.441540009500459</v>
+        <v>-6.527470014261082</v>
       </c>
       <c r="M22">
-        <v>-6.485720025710761</v>
+        <v>-6.482840018056333</v>
       </c>
       <c r="N22">
-        <v>-6.839460025163367</v>
+        <v>-6.832890020474792</v>
       </c>
       <c r="O22">
-        <v>-7.108480019979179</v>
+        <v>-7.095140034884214</v>
       </c>
       <c r="P22">
-        <v>-7.426570028524845</v>
+        <v>-7.43335004394874</v>
       </c>
       <c r="Q22">
-        <v>-7.610920057550072</v>
+        <v>-7.649400044851005</v>
       </c>
       <c r="R22">
-        <v>-7.970730049489066</v>
+        <v>-7.94003004744649</v>
       </c>
       <c r="S22">
-        <v>-8.193050062209368</v>
+        <v>-8.247880071416498</v>
       </c>
       <c r="T22">
-        <v>-8.363940063238143</v>
+        <v>-8.463450062423945</v>
       </c>
       <c r="U22">
-        <v>-8.455640055000782</v>
+        <v>-8.42694006305933</v>
       </c>
       <c r="V22">
-        <v>-8.672680075764656</v>
+        <v>-8.700080062627793</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2029,61 +2029,61 @@
         <v>46</v>
       </c>
       <c r="D23">
-        <v>-7.207389907810837</v>
+        <v>-7.047679901570081</v>
       </c>
       <c r="E23">
-        <v>-7.442479951776564</v>
+        <v>-7.200839951375499</v>
       </c>
       <c r="F23">
-        <v>-7.718419963503257</v>
+        <v>-7.63796995459497</v>
       </c>
       <c r="G23">
-        <v>-7.812109969355166</v>
+        <v>-7.791179972456768</v>
       </c>
       <c r="H23">
-        <v>-8.028879969015717</v>
+        <v>-7.98384997503832</v>
       </c>
       <c r="I23">
-        <v>-8.117159960031509</v>
+        <v>-8.134129956485703</v>
       </c>
       <c r="J23">
-        <v>-8.139839962963014</v>
+        <v>-8.1612399748303</v>
       </c>
       <c r="K23">
-        <v>-8.237779968166723</v>
+        <v>-8.21598996771872</v>
       </c>
       <c r="L23">
-        <v>-8.339949974864721</v>
+        <v>-8.222159971833229</v>
       </c>
       <c r="M23">
-        <v>-8.481909972794353</v>
+        <v>-8.366539972003549</v>
       </c>
       <c r="N23">
-        <v>-8.995859958201647</v>
+        <v>-8.948689975535498</v>
       </c>
       <c r="O23">
-        <v>-9.484509956642984</v>
+        <v>-9.295139969503508</v>
       </c>
       <c r="P23">
-        <v>-9.922449951909483</v>
+        <v>-9.738689953900874</v>
       </c>
       <c r="Q23">
-        <v>-10.1478499506861</v>
+        <v>-10.14227995544299</v>
       </c>
       <c r="R23">
-        <v>-10.47450994963944</v>
+        <v>-10.55044994705916</v>
       </c>
       <c r="S23">
-        <v>-10.66723995240405</v>
+        <v>-10.86360994559154</v>
       </c>
       <c r="T23">
-        <v>-10.98507994278148</v>
+        <v>-10.97325994431973</v>
       </c>
       <c r="U23">
-        <v>-11.21819994543865</v>
+        <v>-11.07744994151592</v>
       </c>
       <c r="V23">
-        <v>-11.36830993609317</v>
+        <v>-11.38097993569076</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2097,61 +2097,61 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>-6.533859943114221</v>
+        <v>-6.620979928091169</v>
       </c>
       <c r="E24">
-        <v>-6.388749976538121</v>
+        <v>-6.355209961634129</v>
       </c>
       <c r="F24">
-        <v>-6.179899985980242</v>
+        <v>-6.186669985923916</v>
       </c>
       <c r="G24">
-        <v>-6.355330005085095</v>
+        <v>-6.308439995229244</v>
       </c>
       <c r="H24">
-        <v>-6.287620001977309</v>
+        <v>-6.253259996859357</v>
       </c>
       <c r="I24">
-        <v>-6.280630008019507</v>
+        <v>-6.256179996000603</v>
       </c>
       <c r="J24">
-        <v>-6.405320000559092</v>
+        <v>-6.330520006928593</v>
       </c>
       <c r="K24">
-        <v>-6.452469996035099</v>
+        <v>-6.487550000652671</v>
       </c>
       <c r="L24">
-        <v>-6.448870002537966</v>
+        <v>-6.41016999296099</v>
       </c>
       <c r="M24">
-        <v>-6.443649996832013</v>
+        <v>-6.447259999521076</v>
       </c>
       <c r="N24">
-        <v>-6.685699987076223</v>
+        <v>-6.737560000300407</v>
       </c>
       <c r="O24">
-        <v>-6.909889987923205</v>
+        <v>-6.936129988044501</v>
       </c>
       <c r="P24">
-        <v>-7.036509979143739</v>
+        <v>-7.109829985707998</v>
       </c>
       <c r="Q24">
-        <v>-7.161519981605932</v>
+        <v>-7.107289975106716</v>
       </c>
       <c r="R24">
-        <v>-7.307469975501299</v>
+        <v>-7.248039979834109</v>
       </c>
       <c r="S24">
-        <v>-7.381959977731109</v>
+        <v>-7.297889978945255</v>
       </c>
       <c r="T24">
-        <v>-7.520409985125065</v>
+        <v>-7.459619971022009</v>
       </c>
       <c r="U24">
-        <v>-7.541909975588322</v>
+        <v>-7.632839971669018</v>
       </c>
       <c r="V24">
-        <v>-7.699629980035126</v>
+        <v>-7.633899972595274</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2165,61 +2165,61 @@
         <v>46</v>
       </c>
       <c r="D25">
-        <v>-7.957129916438832</v>
+        <v>-7.910179906098172</v>
       </c>
       <c r="E25">
-        <v>-8.557229988053441</v>
+        <v>-8.404409973755479</v>
       </c>
       <c r="F25">
-        <v>-8.929280011892319</v>
+        <v>-8.727660008437931</v>
       </c>
       <c r="G25">
-        <v>-9.128400020856411</v>
+        <v>-9.064940007030964</v>
       </c>
       <c r="H25">
-        <v>-9.322180036637931</v>
+        <v>-9.149860041799023</v>
       </c>
       <c r="I25">
-        <v>-9.506080041915178</v>
+        <v>-9.389540052503348</v>
       </c>
       <c r="J25">
-        <v>-9.624120058685541</v>
+        <v>-9.589700025707483</v>
       </c>
       <c r="K25">
-        <v>-9.694260041303933</v>
+        <v>-9.596560037598014</v>
       </c>
       <c r="L25">
-        <v>-9.840480034321546</v>
+        <v>-9.694500039376319</v>
       </c>
       <c r="M25">
-        <v>-9.971520036950707</v>
+        <v>-9.777490029949695</v>
       </c>
       <c r="N25">
-        <v>-10.6021400395669</v>
+        <v>-10.30586003574729</v>
       </c>
       <c r="O25">
-        <v>-10.80009003001451</v>
+        <v>-10.51632003213465</v>
       </c>
       <c r="P25">
-        <v>-11.11090002882481</v>
+        <v>-10.79902003886551</v>
       </c>
       <c r="Q25">
-        <v>-11.23938003361225</v>
+        <v>-11.05376003068686</v>
       </c>
       <c r="R25">
-        <v>-11.42901005497575</v>
+        <v>-11.27206003543735</v>
       </c>
       <c r="S25">
-        <v>-11.56346003609896</v>
+        <v>-11.35876002520323</v>
       </c>
       <c r="T25">
-        <v>-11.65351005416363</v>
+        <v>-11.45029003581591</v>
       </c>
       <c r="U25">
-        <v>-11.84951004493237</v>
+        <v>-11.59193004062772</v>
       </c>
       <c r="V25">
-        <v>-11.8739400331974</v>
+        <v>-11.7612700265944</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2233,61 +2233,61 @@
         <v>46</v>
       </c>
       <c r="D26">
-        <v>-7.115509901925922</v>
+        <v>-7.150269901454449</v>
       </c>
       <c r="E26">
-        <v>-6.803849954953417</v>
+        <v>-6.793479957640171</v>
       </c>
       <c r="F26">
-        <v>-6.481749994099141</v>
+        <v>-6.485309987435118</v>
       </c>
       <c r="G26">
-        <v>-6.436000017404556</v>
+        <v>-6.349510008471086</v>
       </c>
       <c r="H26">
-        <v>-6.260800022672862</v>
+        <v>-6.361200013704598</v>
       </c>
       <c r="I26">
-        <v>-6.257510031998158</v>
+        <v>-6.309660017941147</v>
       </c>
       <c r="J26">
-        <v>-6.159270015956834</v>
+        <v>-6.245740028727799</v>
       </c>
       <c r="K26">
-        <v>-6.149400028012693</v>
+        <v>-6.197870018001645</v>
       </c>
       <c r="L26">
-        <v>-6.136820022381842</v>
+        <v>-6.133490018464625</v>
       </c>
       <c r="M26">
-        <v>-6.103380016580224</v>
+        <v>-6.122750012218952</v>
       </c>
       <c r="N26">
-        <v>-6.137030021429062</v>
+        <v>-6.205720022886991</v>
       </c>
       <c r="O26">
-        <v>-6.274510014198721</v>
+        <v>-6.184430027030408</v>
       </c>
       <c r="P26">
-        <v>-6.283160026172176</v>
+        <v>-6.256190021732822</v>
       </c>
       <c r="Q26">
-        <v>-6.300080014467239</v>
+        <v>-6.345360011488199</v>
       </c>
       <c r="R26">
-        <v>-6.35647001735121</v>
+        <v>-6.382640008479357</v>
       </c>
       <c r="S26">
-        <v>-6.369410008694977</v>
+        <v>-6.36836001598835</v>
       </c>
       <c r="T26">
-        <v>-6.523980008862913</v>
+        <v>-6.545010015828535</v>
       </c>
       <c r="U26">
-        <v>-6.514900013834238</v>
+        <v>-6.649230011761189</v>
       </c>
       <c r="V26">
-        <v>-6.502010007787496</v>
+        <v>-6.483970011515543</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2301,61 +2301,61 @@
         <v>46</v>
       </c>
       <c r="D27">
-        <v>-7.284579903557897</v>
+        <v>-7.347079914160073</v>
       </c>
       <c r="E27">
-        <v>-7.343819976288826</v>
+        <v>-7.353669997729361</v>
       </c>
       <c r="F27">
-        <v>-7.374930020779371</v>
+        <v>-7.487970021396875</v>
       </c>
       <c r="G27">
-        <v>-7.50665003927052</v>
+        <v>-7.488600049242377</v>
       </c>
       <c r="H27">
-        <v>-7.630880046039819</v>
+        <v>-7.559350060284138</v>
       </c>
       <c r="I27">
-        <v>-7.7070000410676</v>
+        <v>-7.723160067215562</v>
       </c>
       <c r="J27">
-        <v>-7.703040055014193</v>
+        <v>-7.844940072895959</v>
       </c>
       <c r="K27">
-        <v>-7.776750057078898</v>
+        <v>-7.897390074849128</v>
       </c>
       <c r="L27">
-        <v>-7.875290074914694</v>
+        <v>-7.939280080856755</v>
       </c>
       <c r="M27">
-        <v>-7.931060071229934</v>
+        <v>-8.082380080156028</v>
       </c>
       <c r="N27">
-        <v>-8.36105007019639</v>
+        <v>-8.52950007249415</v>
       </c>
       <c r="O27">
-        <v>-8.615050067953765</v>
+        <v>-8.699480085328222</v>
       </c>
       <c r="P27">
-        <v>-8.738620072871447</v>
+        <v>-8.790540082022547</v>
       </c>
       <c r="Q27">
-        <v>-9.04286007937789</v>
+        <v>-9.002170079398899</v>
       </c>
       <c r="R27">
-        <v>-9.016010080099106</v>
+        <v>-9.111850089013576</v>
       </c>
       <c r="S27">
-        <v>-9.187420087724924</v>
+        <v>-9.255420100215822</v>
       </c>
       <c r="T27">
-        <v>-9.380670081973076</v>
+        <v>-9.437300100520254</v>
       </c>
       <c r="U27">
-        <v>-9.502760096430778</v>
+        <v>-9.485640102148055</v>
       </c>
       <c r="V27">
-        <v>-9.63097008004412</v>
+        <v>-9.556750099152326</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2369,61 +2369,61 @@
         <v>46</v>
       </c>
       <c r="D28">
-        <v>-6.793159884415567</v>
+        <v>-6.97123989225924</v>
       </c>
       <c r="E28">
-        <v>-6.533329949431121</v>
+        <v>-6.543719945430755</v>
       </c>
       <c r="F28">
-        <v>-6.211379969662056</v>
+        <v>-6.369789967654273</v>
       </c>
       <c r="G28">
-        <v>-6.161409989768639</v>
+        <v>-6.381949999287724</v>
       </c>
       <c r="H28">
-        <v>-6.133220006547869</v>
+        <v>-6.16939999306947</v>
       </c>
       <c r="I28">
-        <v>-6.160380002394318</v>
+        <v>-6.224910012677312</v>
       </c>
       <c r="J28">
-        <v>-6.059400003375486</v>
+        <v>-6.175569996230304</v>
       </c>
       <c r="K28">
-        <v>-6.099990001298488</v>
+        <v>-6.199810003042221</v>
       </c>
       <c r="L28">
-        <v>-6.139280018629506</v>
+        <v>-6.190690008312464</v>
       </c>
       <c r="M28">
-        <v>-6.173190013423562</v>
+        <v>-6.186550010100007</v>
       </c>
       <c r="N28">
-        <v>-6.131830002760514</v>
+        <v>-6.2085400185287</v>
       </c>
       <c r="O28">
-        <v>-6.195900006949902</v>
+        <v>-6.303800005212426</v>
       </c>
       <c r="P28">
-        <v>-6.168100016765297</v>
+        <v>-6.30749000807479</v>
       </c>
       <c r="Q28">
-        <v>-6.286800007298589</v>
+        <v>-6.432340015050023</v>
       </c>
       <c r="R28">
-        <v>-6.239200012549758</v>
+        <v>-6.385620003920049</v>
       </c>
       <c r="S28">
-        <v>-6.327670007735491</v>
+        <v>-6.496590012164787</v>
       </c>
       <c r="T28">
-        <v>-6.357370008051396</v>
+        <v>-6.281620010312647</v>
       </c>
       <c r="U28">
-        <v>-6.347420000731945</v>
+        <v>-6.433659997299314</v>
       </c>
       <c r="V28">
-        <v>-6.320190005399287</v>
+        <v>-6.339810006313026</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2437,61 +2437,61 @@
         <v>47</v>
       </c>
       <c r="D29">
-        <v>-7.659369769306854</v>
+        <v>-7.647969766909257</v>
       </c>
       <c r="E29">
-        <v>-7.344279802531004</v>
+        <v>-7.439819794945419</v>
       </c>
       <c r="F29">
-        <v>-7.329029810253531</v>
+        <v>-7.424629810981452</v>
       </c>
       <c r="G29">
-        <v>-7.202999827988446</v>
+        <v>-7.243759830653667</v>
       </c>
       <c r="H29">
-        <v>-7.171989837810397</v>
+        <v>-7.062649839803576</v>
       </c>
       <c r="I29">
-        <v>-7.008979844534769</v>
+        <v>-6.952799857532606</v>
       </c>
       <c r="J29">
-        <v>-7.062229848913848</v>
+        <v>-6.971289850324393</v>
       </c>
       <c r="K29">
-        <v>-7.098429843515158</v>
+        <v>-7.011589854795486</v>
       </c>
       <c r="L29">
-        <v>-7.144179853759706</v>
+        <v>-6.991449852794409</v>
       </c>
       <c r="M29">
-        <v>-7.095999841690063</v>
+        <v>-7.010169856334105</v>
       </c>
       <c r="N29">
-        <v>-6.981929855436086</v>
+        <v>-7.147179858926684</v>
       </c>
       <c r="O29">
-        <v>-7.003439867831767</v>
+        <v>-6.981149870812893</v>
       </c>
       <c r="P29">
-        <v>-6.988009873725474</v>
+        <v>-7.001299865949899</v>
       </c>
       <c r="Q29">
-        <v>-7.081969860047102</v>
+        <v>-7.044789861023426</v>
       </c>
       <c r="R29">
-        <v>-7.135669868001714</v>
+        <v>-7.073529859513044</v>
       </c>
       <c r="S29">
-        <v>-7.061799865689129</v>
+        <v>-7.019789876535535</v>
       </c>
       <c r="T29">
-        <v>-6.999319864481688</v>
+        <v>-7.094549864470959</v>
       </c>
       <c r="U29">
-        <v>-7.0401698756814</v>
+        <v>-7.044679874420166</v>
       </c>
       <c r="V29">
-        <v>-7.034779869124294</v>
+        <v>-7.07109988231957</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2505,61 +2505,61 @@
         <v>47</v>
       </c>
       <c r="D30">
-        <v>-8.343859835978597</v>
+        <v>-8.379909829266369</v>
       </c>
       <c r="E30">
-        <v>-8.717209909886122</v>
+        <v>-8.78329991722107</v>
       </c>
       <c r="F30">
-        <v>-9.270879952475429</v>
+        <v>-9.317629961103201</v>
       </c>
       <c r="G30">
-        <v>-9.870200006613508</v>
+        <v>-9.684220007061958</v>
       </c>
       <c r="H30">
-        <v>-10.28622003636509</v>
+        <v>-10.39981002043188</v>
       </c>
       <c r="I30">
-        <v>-10.97124005043507</v>
+        <v>-10.93992003905028</v>
       </c>
       <c r="J30">
-        <v>-11.41611006844044</v>
+        <v>-11.22066007512808</v>
       </c>
       <c r="K30">
-        <v>-11.71042006441951</v>
+        <v>-11.77912006658316</v>
       </c>
       <c r="L30">
-        <v>-11.93649009978771</v>
+        <v>-12.02098007492721</v>
       </c>
       <c r="M30">
-        <v>-12.18928009876609</v>
+        <v>-12.37740009200573</v>
       </c>
       <c r="N30">
-        <v>-14.58257018536329</v>
+        <v>-14.61221016979218</v>
       </c>
       <c r="O30">
-        <v>-16.19124024671316</v>
+        <v>-16.08152022641897</v>
       </c>
       <c r="P30">
-        <v>-17.10527024972439</v>
+        <v>-16.98317025592923</v>
       </c>
       <c r="Q30">
-        <v>-17.61911028403044</v>
+        <v>-17.4709002532959</v>
       </c>
       <c r="R30">
-        <v>-17.95609026956558</v>
+        <v>-17.76153027057648</v>
       </c>
       <c r="S30">
-        <v>-18.22023029482365</v>
+        <v>-18.13907028365135</v>
       </c>
       <c r="T30">
-        <v>-18.35453030157089</v>
+        <v>-18.40747029066086</v>
       </c>
       <c r="U30">
-        <v>-18.53891029632091</v>
+        <v>-18.38225030040741</v>
       </c>
       <c r="V30">
-        <v>-18.61094031381607</v>
+        <v>-18.45165029096603</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2573,61 +2573,61 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>-7.38484987786971</v>
+        <v>-7.342429880268872</v>
       </c>
       <c r="E31">
-        <v>-7.122429952532053</v>
+        <v>-7.117109952641651</v>
       </c>
       <c r="F31">
-        <v>-7.167239973202348</v>
+        <v>-7.285739960834384</v>
       </c>
       <c r="G31">
-        <v>-7.372299980193376</v>
+        <v>-7.275069989873097</v>
       </c>
       <c r="H31">
-        <v>-7.273759984135628</v>
+        <v>-7.379629995778203</v>
       </c>
       <c r="I31">
-        <v>-7.494719981335104</v>
+        <v>-7.54267998309806</v>
       </c>
       <c r="J31">
-        <v>-7.549269974127411</v>
+        <v>-7.530979977846146</v>
       </c>
       <c r="K31">
-        <v>-7.604019966512919</v>
+        <v>-7.658769967785105</v>
       </c>
       <c r="L31">
-        <v>-7.524329971065745</v>
+        <v>-7.748799966543912</v>
       </c>
       <c r="M31">
-        <v>-7.64540997441113</v>
+        <v>-7.692359973076731</v>
       </c>
       <c r="N31">
-        <v>-8.326759939119221</v>
+        <v>-8.302559942083434</v>
       </c>
       <c r="O31">
-        <v>-8.714739919241518</v>
+        <v>-8.651649916812778</v>
       </c>
       <c r="P31">
-        <v>-9.095969915501774</v>
+        <v>-9.023659908631817</v>
       </c>
       <c r="Q31">
-        <v>-9.449649892240762</v>
+        <v>-9.388469910062849</v>
       </c>
       <c r="R31">
-        <v>-9.758219898760318</v>
+        <v>-9.804799874722958</v>
       </c>
       <c r="S31">
-        <v>-10.08047986993194</v>
+        <v>-10.04725987505913</v>
       </c>
       <c r="T31">
-        <v>-10.33591985903308</v>
+        <v>-10.28233985608816</v>
       </c>
       <c r="U31">
-        <v>-10.48768984009326</v>
+        <v>-10.4909498642385</v>
       </c>
       <c r="V31">
-        <v>-10.74460984556377</v>
+        <v>-10.62378984904289</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2641,61 +2641,61 @@
         <v>47</v>
       </c>
       <c r="D32">
-        <v>-9.400649906791747</v>
+        <v>-9.271699896216392</v>
       </c>
       <c r="E32">
-        <v>-11.04340998412669</v>
+        <v>-10.87063998024166</v>
       </c>
       <c r="F32">
-        <v>-12.13867001277953</v>
+        <v>-11.96164001488686</v>
       </c>
       <c r="G32">
-        <v>-12.78359003214538</v>
+        <v>-12.40596000504494</v>
       </c>
       <c r="H32">
-        <v>-13.32944005084038</v>
+        <v>-13.04751002413593</v>
       </c>
       <c r="I32">
-        <v>-13.5886000430882</v>
+        <v>-13.36673003724217</v>
       </c>
       <c r="J32">
-        <v>-13.76882004076242</v>
+        <v>-13.53858001679182</v>
       </c>
       <c r="K32">
-        <v>-13.96783004388213</v>
+        <v>-13.68816003676876</v>
       </c>
       <c r="L32">
-        <v>-14.14462004396319</v>
+        <v>-13.88042002952099</v>
       </c>
       <c r="M32">
-        <v>-14.2096300483495</v>
+        <v>-13.98583002173901</v>
       </c>
       <c r="N32">
-        <v>-14.82764006251097</v>
+        <v>-14.52709006142616</v>
       </c>
       <c r="O32">
-        <v>-14.97430005764961</v>
+        <v>-14.86586005020142</v>
       </c>
       <c r="P32">
-        <v>-15.04147006562352</v>
+        <v>-14.93726006138325</v>
       </c>
       <c r="Q32">
-        <v>-15.21194006931782</v>
+        <v>-15.01066005504131</v>
       </c>
       <c r="R32">
-        <v>-15.31988006973267</v>
+        <v>-15.10259005904198</v>
       </c>
       <c r="S32">
-        <v>-15.34443008577824</v>
+        <v>-15.1639400806725</v>
       </c>
       <c r="T32">
-        <v>-15.52498007535934</v>
+        <v>-15.26965007424355</v>
       </c>
       <c r="U32">
-        <v>-15.39868007707596</v>
+        <v>-15.27411007070541</v>
       </c>
       <c r="V32">
-        <v>-15.51912006390095</v>
+        <v>-15.31685006958246</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2709,61 +2709,61 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>-8.145099998891354</v>
+        <v>-7.98464999371767</v>
       </c>
       <c r="E33">
-        <v>-7.93203001075238</v>
+        <v>-7.905290007993579</v>
       </c>
       <c r="F33">
-        <v>-7.828810010109096</v>
+        <v>-7.739120011612773</v>
       </c>
       <c r="G33">
-        <v>-7.767460012108088</v>
+        <v>-7.66987001585029</v>
       </c>
       <c r="H33">
-        <v>-7.59963002076745</v>
+        <v>-7.626800018891692</v>
       </c>
       <c r="I33">
-        <v>-7.495080023825168</v>
+        <v>-7.531410025170073</v>
       </c>
       <c r="J33">
-        <v>-7.668680020108819</v>
+        <v>-7.528820023117587</v>
       </c>
       <c r="K33">
-        <v>-7.527940020024777</v>
+        <v>-7.570090023852885</v>
       </c>
       <c r="L33">
-        <v>-7.590390022441745</v>
+        <v>-7.470270029060543</v>
       </c>
       <c r="M33">
-        <v>-7.483690020367503</v>
+        <v>-7.534960021466016</v>
       </c>
       <c r="N33">
-        <v>-7.753310011282563</v>
+        <v>-7.775000011920929</v>
       </c>
       <c r="O33">
-        <v>-7.870099990852177</v>
+        <v>-7.961469989208505</v>
       </c>
       <c r="P33">
-        <v>-8.170949975773691</v>
+        <v>-8.086119984179735</v>
       </c>
       <c r="Q33">
-        <v>-8.266439972441644</v>
+        <v>-8.520549975812434</v>
       </c>
       <c r="R33">
-        <v>-8.527419963181019</v>
+        <v>-8.731909955523909</v>
       </c>
       <c r="S33">
-        <v>-8.66814996087551</v>
+        <v>-8.919479958444834</v>
       </c>
       <c r="T33">
-        <v>-8.842339956656099</v>
+        <v>-9.137329943086952</v>
       </c>
       <c r="U33">
-        <v>-9.013119940400124</v>
+        <v>-9.294579935014248</v>
       </c>
       <c r="V33">
-        <v>-9.199179935906082</v>
+        <v>-9.47707993580401</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2777,61 +2777,61 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>-7.421119909569621</v>
+        <v>-7.610799876287579</v>
       </c>
       <c r="E34">
-        <v>-7.699439947456121</v>
+        <v>-7.979759931147099</v>
       </c>
       <c r="F34">
-        <v>-8.220079972460866</v>
+        <v>-8.350739958509802</v>
       </c>
       <c r="G34">
-        <v>-8.433989972531796</v>
+        <v>-8.737039984226227</v>
       </c>
       <c r="H34">
-        <v>-8.572059998374431</v>
+        <v>-8.827039999658242</v>
       </c>
       <c r="I34">
-        <v>-8.852309991270303</v>
+        <v>-9.109370003588497</v>
       </c>
       <c r="J34">
-        <v>-8.959209995046258</v>
+        <v>-9.345290006525815</v>
       </c>
       <c r="K34">
-        <v>-9.167939994141459</v>
+        <v>-9.431189997553826</v>
       </c>
       <c r="L34">
-        <v>-9.283860014684498</v>
+        <v>-9.591750001870096</v>
       </c>
       <c r="M34">
-        <v>-9.345430007398129</v>
+        <v>-9.789280011117459</v>
       </c>
       <c r="N34">
-        <v>-9.901150002829731</v>
+        <v>-10.2418300165534</v>
       </c>
       <c r="O34">
-        <v>-10.26248001088202</v>
+        <v>-10.61852001258731</v>
       </c>
       <c r="P34">
-        <v>-10.43173000466824</v>
+        <v>-10.73658000993729</v>
       </c>
       <c r="Q34">
-        <v>-10.54806000057049</v>
+        <v>-10.83766000580788</v>
       </c>
       <c r="R34">
-        <v>-10.67081001830101</v>
+        <v>-10.94658001214266</v>
       </c>
       <c r="S34">
-        <v>-10.7437000143528</v>
+        <v>-11.04655002510548</v>
       </c>
       <c r="T34">
-        <v>-10.71661001312733</v>
+        <v>-10.97800001120567</v>
       </c>
       <c r="U34">
-        <v>-10.89641001224518</v>
+        <v>-11.14476001831889</v>
       </c>
       <c r="V34">
-        <v>-10.93042000550032</v>
+        <v>-11.17617002022266</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2845,61 +2845,61 @@
         <v>47</v>
       </c>
       <c r="D35">
-        <v>-7.769319826319814</v>
+        <v>-7.87770982158184</v>
       </c>
       <c r="E35">
-        <v>-7.723499886661768</v>
+        <v>-7.824539897255599</v>
       </c>
       <c r="F35">
-        <v>-7.867139934062958</v>
+        <v>-7.963219928950071</v>
       </c>
       <c r="G35">
-        <v>-8.07771996486187</v>
+        <v>-8.123899964921176</v>
       </c>
       <c r="H35">
-        <v>-8.270799985989928</v>
+        <v>-8.337369983434677</v>
       </c>
       <c r="I35">
-        <v>-8.340329996466636</v>
+        <v>-8.484169992564246</v>
       </c>
       <c r="J35">
-        <v>-8.527890011385082</v>
+        <v>-8.60487001234293</v>
       </c>
       <c r="K35">
-        <v>-8.648190011054277</v>
+        <v>-8.635700012177228</v>
       </c>
       <c r="L35">
-        <v>-8.751130024001002</v>
+        <v>-8.909710020184518</v>
       </c>
       <c r="M35">
-        <v>-8.998740019548684</v>
+        <v>-8.921440027642996</v>
       </c>
       <c r="N35">
-        <v>-9.624110041379929</v>
+        <v>-9.588180049210786</v>
       </c>
       <c r="O35">
-        <v>-9.953200068235397</v>
+        <v>-9.99558006218262</v>
       </c>
       <c r="P35">
-        <v>-10.23978006541729</v>
+        <v>-10.22338007169962</v>
       </c>
       <c r="Q35">
-        <v>-10.46778007531166</v>
+        <v>-10.43038007959724</v>
       </c>
       <c r="R35">
-        <v>-10.69230008482933</v>
+        <v>-10.45877007162571</v>
       </c>
       <c r="S35">
-        <v>-10.79727007937431</v>
+        <v>-10.66031007969379</v>
       </c>
       <c r="T35">
-        <v>-10.89746008113027</v>
+        <v>-10.84697009810805</v>
       </c>
       <c r="U35">
-        <v>-10.90636008834839</v>
+        <v>-10.82190008819103</v>
       </c>
       <c r="V35">
-        <v>-11.0419600918889</v>
+        <v>-10.8937900916934</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2913,61 +2913,61 @@
         <v>47</v>
       </c>
       <c r="D36">
-        <v>-7.284639864072203</v>
+        <v>-7.083609865315259</v>
       </c>
       <c r="E36">
-        <v>-7.152829926759004</v>
+        <v>-7.35772990757227</v>
       </c>
       <c r="F36">
-        <v>-7.205199948936701</v>
+        <v>-7.405969948081299</v>
       </c>
       <c r="G36">
-        <v>-7.212699968511239</v>
+        <v>-7.436629974462092</v>
       </c>
       <c r="H36">
-        <v>-7.42603997373581</v>
+        <v>-7.570179989144206</v>
       </c>
       <c r="I36">
-        <v>-7.662899983361363</v>
+        <v>-7.830919980943203</v>
       </c>
       <c r="J36">
-        <v>-7.523690001443028</v>
+        <v>-7.87156999361515</v>
       </c>
       <c r="K36">
-        <v>-7.631429997496307</v>
+        <v>-7.949979994127527</v>
       </c>
       <c r="L36">
-        <v>-7.946529995203019</v>
+        <v>-7.934680014271289</v>
       </c>
       <c r="M36">
-        <v>-7.946579996243119</v>
+        <v>-8.02069000608474</v>
       </c>
       <c r="N36">
-        <v>-8.206360026121139</v>
+        <v>-8.377740022450686</v>
       </c>
       <c r="O36">
-        <v>-8.539790019292385</v>
+        <v>-8.5994800265003</v>
       </c>
       <c r="P36">
-        <v>-8.541290028899908</v>
+        <v>-8.72800003175065</v>
       </c>
       <c r="Q36">
-        <v>-8.787830025494099</v>
+        <v>-8.868070026487112</v>
       </c>
       <c r="R36">
-        <v>-8.800340024385601</v>
+        <v>-8.931820042610168</v>
       </c>
       <c r="S36">
-        <v>-8.902320042282343</v>
+        <v>-8.970120040029288</v>
       </c>
       <c r="T36">
-        <v>-8.967420040309429</v>
+        <v>-9.013060037851334</v>
       </c>
       <c r="U36">
-        <v>-9.07553003168106</v>
+        <v>-9.106160034343601</v>
       </c>
       <c r="V36">
-        <v>-9.086260039746762</v>
+        <v>-9.100690043330193</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2981,61 +2981,61 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <v>-7.743049800395966</v>
+        <v>-7.787669789332896</v>
       </c>
       <c r="E37">
-        <v>-7.541649831656366</v>
+        <v>-7.683979814261198</v>
       </c>
       <c r="F37">
-        <v>-7.456239843904972</v>
+        <v>-7.363929847352207</v>
       </c>
       <c r="G37">
-        <v>-7.386449862394482</v>
+        <v>-7.328319864418358</v>
       </c>
       <c r="H37">
-        <v>-7.3114698767066</v>
+        <v>-7.283729881882667</v>
       </c>
       <c r="I37">
-        <v>-7.495639880977571</v>
+        <v>-7.432599876075983</v>
       </c>
       <c r="J37">
-        <v>-7.463329871209338</v>
+        <v>-7.302279892735183</v>
       </c>
       <c r="K37">
-        <v>-7.394119883174077</v>
+        <v>-7.454589878350497</v>
       </c>
       <c r="L37">
-        <v>-7.480299877822399</v>
+        <v>-7.401439887791872</v>
       </c>
       <c r="M37">
-        <v>-7.410189883306622</v>
+        <v>-7.546849888041615</v>
       </c>
       <c r="N37">
-        <v>-7.679199893243611</v>
+        <v>-7.674529885809869</v>
       </c>
       <c r="O37">
-        <v>-7.852509900212288</v>
+        <v>-7.959069884657859</v>
       </c>
       <c r="P37">
-        <v>-8.100139894425869</v>
+        <v>-7.992429913759231</v>
       </c>
       <c r="Q37">
-        <v>-8.362999885024504</v>
+        <v>-8.210069886863232</v>
       </c>
       <c r="R37">
-        <v>-8.626829884180799</v>
+        <v>-8.435219898104668</v>
       </c>
       <c r="S37">
-        <v>-8.79004988270998</v>
+        <v>-8.538199895622208</v>
       </c>
       <c r="T37">
-        <v>-8.871249879524111</v>
+        <v>-8.777279888823628</v>
       </c>
       <c r="U37">
-        <v>-8.880979891456663</v>
+        <v>-8.926019885122775</v>
       </c>
       <c r="V37">
-        <v>-9.174859862327576</v>
+        <v>-9.074849878430367</v>
       </c>
     </row>
   </sheetData>
@@ -3059,61 +3059,61 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>0.03</v>
       </c>
       <c r="G1" s="1">
-        <v>3</v>
+        <v>0.04</v>
       </c>
       <c r="H1" s="1">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="I1" s="1">
-        <v>5</v>
+        <v>0.06</v>
       </c>
       <c r="J1" s="1">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K1" s="1">
-        <v>7</v>
+        <v>0.08</v>
       </c>
       <c r="L1" s="1">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="M1" s="1">
-        <v>9</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="N1" s="1">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="O1" s="1">
-        <v>11</v>
+        <v>0.3</v>
       </c>
       <c r="P1" s="1">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="Q1" s="1">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="R1" s="1">
-        <v>14</v>
+        <v>0.6</v>
       </c>
       <c r="S1" s="1">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="T1" s="1">
-        <v>16</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="U1" s="1">
-        <v>17</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="V1" s="1">
-        <v>18</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3127,61 +3127,61 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>2.031826247841104</v>
+        <v>1.880371837109744</v>
       </c>
       <c r="E2">
-        <v>1.925784622869529</v>
+        <v>1.963516006509938</v>
       </c>
       <c r="F2">
-        <v>1.974850626250654</v>
+        <v>1.929021657913922</v>
       </c>
       <c r="G2">
-        <v>1.90102814476651</v>
+        <v>1.927721886748555</v>
       </c>
       <c r="H2">
-        <v>1.911139387434268</v>
+        <v>1.889478166799563</v>
       </c>
       <c r="I2">
-        <v>1.983107024222195</v>
+        <v>1.969872746340596</v>
       </c>
       <c r="J2">
-        <v>1.949676420153548</v>
+        <v>1.869188899751575</v>
       </c>
       <c r="K2">
-        <v>1.877553153838039</v>
+        <v>1.896028124787012</v>
       </c>
       <c r="L2">
-        <v>1.921977258635996</v>
+        <v>1.842375092850548</v>
       </c>
       <c r="M2">
-        <v>1.92938342422852</v>
+        <v>1.811667040699668</v>
       </c>
       <c r="N2">
-        <v>1.858985113127503</v>
+        <v>1.95076544027264</v>
       </c>
       <c r="O2">
-        <v>1.832622843322462</v>
+        <v>1.905431537304954</v>
       </c>
       <c r="P2">
-        <v>1.855422789904195</v>
+        <v>1.848865828667081</v>
       </c>
       <c r="Q2">
-        <v>1.907889958532731</v>
+        <v>1.940294693563329</v>
       </c>
       <c r="R2">
-        <v>1.88811890099518</v>
+        <v>1.995502058658129</v>
       </c>
       <c r="S2">
-        <v>1.88070408031212</v>
+        <v>1.849181945993221</v>
       </c>
       <c r="T2">
-        <v>2.030693796053153</v>
+        <v>1.886640091261145</v>
       </c>
       <c r="U2">
-        <v>1.957351612381319</v>
+        <v>1.969586873299906</v>
       </c>
       <c r="V2">
-        <v>1.895696340324831</v>
+        <v>1.887690381114378</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -3195,61 +3195,61 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>2.150557721591649</v>
+        <v>2.255100392646124</v>
       </c>
       <c r="E3">
-        <v>2.61305482062019</v>
+        <v>2.549266102700618</v>
       </c>
       <c r="F3">
-        <v>2.707506139609197</v>
+        <v>2.845548870740642</v>
       </c>
       <c r="G3">
-        <v>2.902883373346838</v>
+        <v>3.084074803871717</v>
       </c>
       <c r="H3">
-        <v>2.990422021000641</v>
+        <v>3.100271440564533</v>
       </c>
       <c r="I3">
-        <v>3.076142462880123</v>
+        <v>3.156934936227176</v>
       </c>
       <c r="J3">
-        <v>3.17683838915645</v>
+        <v>3.248754195322317</v>
       </c>
       <c r="K3">
-        <v>3.202117769865204</v>
+        <v>3.334092267237505</v>
       </c>
       <c r="L3">
-        <v>3.219315402838955</v>
+        <v>3.321783327249355</v>
       </c>
       <c r="M3">
-        <v>3.321721837013195</v>
+        <v>3.326632142188077</v>
       </c>
       <c r="N3">
-        <v>3.427738586543545</v>
+        <v>3.53949523647782</v>
       </c>
       <c r="O3">
-        <v>3.404354653169951</v>
+        <v>3.534551812281393</v>
       </c>
       <c r="P3">
-        <v>3.484055907730181</v>
+        <v>3.613938877961056</v>
       </c>
       <c r="Q3">
-        <v>3.539140464956845</v>
+        <v>3.602161486066839</v>
       </c>
       <c r="R3">
-        <v>3.651487626765224</v>
+        <v>3.738114982301141</v>
       </c>
       <c r="S3">
-        <v>3.61339602354444</v>
+        <v>3.724397989597665</v>
       </c>
       <c r="T3">
-        <v>3.70397775520055</v>
+        <v>3.687420122304653</v>
       </c>
       <c r="U3">
-        <v>3.672175924105919</v>
+        <v>3.745364765799706</v>
       </c>
       <c r="V3">
-        <v>3.695293547117238</v>
+        <v>3.847969158381064</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3263,61 +3263,61 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>1.230676750117319</v>
+        <v>1.162917768897409</v>
       </c>
       <c r="E4">
-        <v>1.137081471659829</v>
+        <v>1.21236317998544</v>
       </c>
       <c r="F4">
-        <v>1.101207626497657</v>
+        <v>1.130224384595467</v>
       </c>
       <c r="G4">
-        <v>1.189667454733618</v>
+        <v>1.175348447970583</v>
       </c>
       <c r="H4">
-        <v>1.129498023202204</v>
+        <v>1.087572082386923</v>
       </c>
       <c r="I4">
-        <v>1.24935490414928</v>
+        <v>1.165278052235037</v>
       </c>
       <c r="J4">
-        <v>1.064630857609785</v>
+        <v>1.095042677613016</v>
       </c>
       <c r="K4">
-        <v>1.222728931572379</v>
+        <v>1.083228896638058</v>
       </c>
       <c r="L4">
-        <v>1.093765113746211</v>
+        <v>1.057632070791228</v>
       </c>
       <c r="M4">
-        <v>1.145007852253811</v>
+        <v>1.109658021580486</v>
       </c>
       <c r="N4">
-        <v>1.152130446989313</v>
+        <v>1.136245529585929</v>
       </c>
       <c r="O4">
-        <v>1.083797778413614</v>
+        <v>1.083451979239412</v>
       </c>
       <c r="P4">
-        <v>1.042478476546441</v>
+        <v>1.016286053790452</v>
       </c>
       <c r="Q4">
-        <v>1.113153036723313</v>
+        <v>1.046050332716511</v>
       </c>
       <c r="R4">
-        <v>1.133862063277498</v>
+        <v>1.017364192989792</v>
       </c>
       <c r="S4">
-        <v>0.9751880111772623</v>
+        <v>1.060695604459068</v>
       </c>
       <c r="T4">
-        <v>1.073809966321822</v>
+        <v>1.037761475387304</v>
       </c>
       <c r="U4">
-        <v>1.032901471560689</v>
+        <v>1.067589099084626</v>
       </c>
       <c r="V4">
-        <v>0.9929390923571642</v>
+        <v>1.052487027244061</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -3331,61 +3331,61 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>2.138425344080357</v>
+        <v>2.202449653122311</v>
       </c>
       <c r="E5">
-        <v>2.210358364258608</v>
+        <v>2.249011885533566</v>
       </c>
       <c r="F5">
-        <v>2.213210362263315</v>
+        <v>2.290698244904726</v>
       </c>
       <c r="G5">
-        <v>2.198851418342714</v>
+        <v>2.224773486307455</v>
       </c>
       <c r="H5">
-        <v>2.166366913471895</v>
+        <v>2.115769239742422</v>
       </c>
       <c r="I5">
-        <v>2.157970317004901</v>
+        <v>2.197844909166065</v>
       </c>
       <c r="J5">
-        <v>2.177695017554183</v>
+        <v>2.202421486452096</v>
       </c>
       <c r="K5">
-        <v>2.151718784632066</v>
+        <v>2.174944398446597</v>
       </c>
       <c r="L5">
-        <v>2.147276530042574</v>
+        <v>2.093757668977827</v>
       </c>
       <c r="M5">
-        <v>2.075616358459059</v>
+        <v>2.130992692999837</v>
       </c>
       <c r="N5">
-        <v>2.153809360144701</v>
+        <v>2.128513680492666</v>
       </c>
       <c r="O5">
-        <v>2.171916447133466</v>
+        <v>2.186915510510876</v>
       </c>
       <c r="P5">
-        <v>2.226479586689618</v>
+        <v>2.140577971271764</v>
       </c>
       <c r="Q5">
-        <v>2.141598603481178</v>
+        <v>2.166909610014876</v>
       </c>
       <c r="R5">
-        <v>2.153882393541387</v>
+        <v>2.153697370036499</v>
       </c>
       <c r="S5">
-        <v>2.205578256383254</v>
+        <v>2.101584171537655</v>
       </c>
       <c r="T5">
-        <v>2.123845000447768</v>
+        <v>2.252135591909679</v>
       </c>
       <c r="U5">
-        <v>2.107873266684748</v>
+        <v>2.214128430486988</v>
       </c>
       <c r="V5">
-        <v>2.147402126003869</v>
+        <v>2.142314427008547</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3399,61 +3399,61 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>3.43526601300434</v>
+        <v>3.339486695315649</v>
       </c>
       <c r="E6">
-        <v>3.940092423236413</v>
+        <v>3.846026724671808</v>
       </c>
       <c r="F6">
-        <v>3.974142026833123</v>
+        <v>3.859735132593229</v>
       </c>
       <c r="G6">
-        <v>3.920740077208249</v>
+        <v>3.920837670403177</v>
       </c>
       <c r="H6">
-        <v>3.749774396188715</v>
+        <v>3.813893178098925</v>
       </c>
       <c r="I6">
-        <v>3.733107455856677</v>
+        <v>3.586130316745776</v>
       </c>
       <c r="J6">
-        <v>3.557428947703033</v>
+        <v>3.601608430364231</v>
       </c>
       <c r="K6">
-        <v>3.595900536656328</v>
+        <v>3.454026137884854</v>
       </c>
       <c r="L6">
-        <v>3.507903736684598</v>
+        <v>3.378370288975414</v>
       </c>
       <c r="M6">
-        <v>3.404002199199946</v>
+        <v>3.356762614408459</v>
       </c>
       <c r="N6">
-        <v>3.034055838140993</v>
+        <v>3.073262377745916</v>
       </c>
       <c r="O6">
-        <v>2.758066317191258</v>
+        <v>2.903864332690401</v>
       </c>
       <c r="P6">
-        <v>2.725450171488127</v>
+        <v>2.719671401283665</v>
       </c>
       <c r="Q6">
-        <v>2.52362655175624</v>
+        <v>2.658727831208491</v>
       </c>
       <c r="R6">
-        <v>2.577312237228766</v>
+        <v>2.644801403193836</v>
       </c>
       <c r="S6">
-        <v>2.419057702194454</v>
+        <v>2.444987266603404</v>
       </c>
       <c r="T6">
-        <v>2.448343227422044</v>
+        <v>2.500824715046355</v>
       </c>
       <c r="U6">
-        <v>2.330777589461696</v>
+        <v>2.46756876695779</v>
       </c>
       <c r="V6">
-        <v>2.306476997812719</v>
+        <v>2.355406327582902</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3467,61 +3467,61 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>2.332924440746969</v>
+        <v>2.328740956173381</v>
       </c>
       <c r="E7">
-        <v>2.417893929287715</v>
+        <v>2.311382395553795</v>
       </c>
       <c r="F7">
-        <v>2.543337549028382</v>
+        <v>2.606910304793594</v>
       </c>
       <c r="G7">
-        <v>2.638335368409204</v>
+        <v>2.613232406111867</v>
       </c>
       <c r="H7">
-        <v>2.779197473421944</v>
+        <v>2.769035024784174</v>
       </c>
       <c r="I7">
-        <v>2.927228374193517</v>
+        <v>2.865783335324167</v>
       </c>
       <c r="J7">
-        <v>2.984129642521333</v>
+        <v>3.069378574765418</v>
       </c>
       <c r="K7">
-        <v>2.969653082116348</v>
+        <v>3.079870710704948</v>
       </c>
       <c r="L7">
-        <v>3.064710538165808</v>
+        <v>3.10915805370488</v>
       </c>
       <c r="M7">
-        <v>3.150054281618423</v>
+        <v>3.134059258202072</v>
       </c>
       <c r="N7">
-        <v>3.405723991123992</v>
+        <v>3.259245944801442</v>
       </c>
       <c r="O7">
-        <v>3.514286115808018</v>
+        <v>3.409317214068917</v>
       </c>
       <c r="P7">
-        <v>3.34503531326238</v>
+        <v>3.246450637167649</v>
       </c>
       <c r="Q7">
-        <v>3.380891268196371</v>
+        <v>3.187806094689155</v>
       </c>
       <c r="R7">
-        <v>3.197548044423526</v>
+        <v>3.217290354738181</v>
       </c>
       <c r="S7">
-        <v>3.260826881994643</v>
+        <v>3.156091096899375</v>
       </c>
       <c r="T7">
-        <v>3.282276344964725</v>
+        <v>3.081007057261834</v>
       </c>
       <c r="U7">
-        <v>3.131623325619066</v>
+        <v>3.079385737180544</v>
       </c>
       <c r="V7">
-        <v>3.100903330129114</v>
+        <v>3.02191647601693</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3535,61 +3535,61 @@
         <v>41</v>
       </c>
       <c r="D8">
-        <v>2.108205524058847</v>
+        <v>2.148310441800604</v>
       </c>
       <c r="E8">
-        <v>2.165333473925749</v>
+        <v>2.181130449220646</v>
       </c>
       <c r="F8">
-        <v>2.123114655980859</v>
+        <v>2.241980576494084</v>
       </c>
       <c r="G8">
-        <v>2.137021570087652</v>
+        <v>2.143486389739342</v>
       </c>
       <c r="H8">
-        <v>2.177830427337004</v>
+        <v>2.107961234436032</v>
       </c>
       <c r="I8">
-        <v>2.14807717531539</v>
+        <v>2.15072035454271</v>
       </c>
       <c r="J8">
-        <v>2.191407097626362</v>
+        <v>2.167136051614739</v>
       </c>
       <c r="K8">
-        <v>2.228648585600433</v>
+        <v>2.196180800718309</v>
       </c>
       <c r="L8">
-        <v>2.166261523805202</v>
+        <v>2.084377592785087</v>
       </c>
       <c r="M8">
-        <v>2.121651345275903</v>
+        <v>2.149312086129915</v>
       </c>
       <c r="N8">
-        <v>2.17434662649963</v>
+        <v>2.084158044773899</v>
       </c>
       <c r="O8">
-        <v>2.092964783203251</v>
+        <v>2.087086098601845</v>
       </c>
       <c r="P8">
-        <v>2.095170382621542</v>
+        <v>2.114049725468506</v>
       </c>
       <c r="Q8">
-        <v>2.187013104003308</v>
+        <v>2.16397833624085</v>
       </c>
       <c r="R8">
-        <v>2.174003055200436</v>
+        <v>2.097600404186684</v>
       </c>
       <c r="S8">
-        <v>2.080912829924074</v>
+        <v>2.086003650190412</v>
       </c>
       <c r="T8">
-        <v>2.102417331214731</v>
+        <v>2.133457555102294</v>
       </c>
       <c r="U8">
-        <v>2.126463978246218</v>
+        <v>2.063276336608786</v>
       </c>
       <c r="V8">
-        <v>2.147844442139234</v>
+        <v>2.108545281264203</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3603,61 +3603,61 @@
         <v>41</v>
       </c>
       <c r="D9">
-        <v>3.249940863573578</v>
+        <v>3.108390537314371</v>
       </c>
       <c r="E9">
-        <v>3.856982917254435</v>
+        <v>3.858289814110474</v>
       </c>
       <c r="F9">
-        <v>4.143338889941433</v>
+        <v>4.089885953782904</v>
       </c>
       <c r="G9">
-        <v>4.326666636776806</v>
+        <v>4.356893141194215</v>
       </c>
       <c r="H9">
-        <v>4.367229011005686</v>
+        <v>4.372586467719331</v>
       </c>
       <c r="I9">
-        <v>4.381249297559314</v>
+        <v>4.441261866050312</v>
       </c>
       <c r="J9">
-        <v>4.401202311900799</v>
+        <v>4.43476383641</v>
       </c>
       <c r="K9">
-        <v>4.546634904954578</v>
+        <v>4.561294994899806</v>
       </c>
       <c r="L9">
-        <v>4.498058146452472</v>
+        <v>4.485561503390805</v>
       </c>
       <c r="M9">
-        <v>4.462316246018099</v>
+        <v>4.452452592847179</v>
       </c>
       <c r="N9">
-        <v>4.172679426582349</v>
+        <v>4.164526740518669</v>
       </c>
       <c r="O9">
-        <v>3.842594485287835</v>
+        <v>4.019702645438654</v>
       </c>
       <c r="P9">
-        <v>3.566837670646422</v>
+        <v>3.659305602261431</v>
       </c>
       <c r="Q9">
-        <v>3.358864200482699</v>
+        <v>3.571510354630678</v>
       </c>
       <c r="R9">
-        <v>3.111499823126088</v>
+        <v>3.295680525473076</v>
       </c>
       <c r="S9">
-        <v>3.002444886188612</v>
+        <v>3.199366427633955</v>
       </c>
       <c r="T9">
-        <v>2.885993658992292</v>
+        <v>3.078928005829201</v>
       </c>
       <c r="U9">
-        <v>2.716638763177797</v>
+        <v>2.982373112759155</v>
       </c>
       <c r="V9">
-        <v>2.603132481655388</v>
+        <v>2.764868710771311</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3671,61 +3671,61 @@
         <v>42</v>
       </c>
       <c r="D10">
-        <v>2.14938204213679</v>
+        <v>2.113025847416985</v>
       </c>
       <c r="E10">
-        <v>2.235623253488567</v>
+        <v>2.263107126883658</v>
       </c>
       <c r="F10">
-        <v>2.267347578651215</v>
+        <v>2.345973262863577</v>
       </c>
       <c r="G10">
-        <v>2.254201547694699</v>
+        <v>2.266360959511982</v>
       </c>
       <c r="H10">
-        <v>2.207580222349482</v>
+        <v>2.275163475767496</v>
       </c>
       <c r="I10">
-        <v>2.155543365706769</v>
+        <v>2.255879526294252</v>
       </c>
       <c r="J10">
-        <v>2.080731225861333</v>
+        <v>2.20359593235074</v>
       </c>
       <c r="K10">
-        <v>2.101997510204667</v>
+        <v>2.135561350881706</v>
       </c>
       <c r="L10">
-        <v>1.966451147561326</v>
+        <v>2.171622775173595</v>
       </c>
       <c r="M10">
-        <v>1.932308209126729</v>
+        <v>2.114084661445632</v>
       </c>
       <c r="N10">
-        <v>1.815623439669349</v>
+        <v>1.976035106685664</v>
       </c>
       <c r="O10">
-        <v>1.714423061166865</v>
+        <v>1.819537595021339</v>
       </c>
       <c r="P10">
-        <v>1.691678401875321</v>
+        <v>1.865965326102129</v>
       </c>
       <c r="Q10">
-        <v>1.639109254434199</v>
+        <v>1.781558492679428</v>
       </c>
       <c r="R10">
-        <v>1.59798344739426</v>
+        <v>1.818552339991178</v>
       </c>
       <c r="S10">
-        <v>1.683637073233036</v>
+        <v>1.728924848363274</v>
       </c>
       <c r="T10">
-        <v>1.7330681565188</v>
+        <v>1.764018636517668</v>
       </c>
       <c r="U10">
-        <v>1.656080074341298</v>
+        <v>1.828981484413976</v>
       </c>
       <c r="V10">
-        <v>1.704654818523081</v>
+        <v>1.75271135692055</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3739,61 +3739,61 @@
         <v>43</v>
       </c>
       <c r="D11">
-        <v>2.111876839791999</v>
+        <v>2.268577873720319</v>
       </c>
       <c r="E11">
-        <v>2.231820192713878</v>
+        <v>2.134635723164723</v>
       </c>
       <c r="F11">
-        <v>2.070927351089241</v>
+        <v>2.154179994779706</v>
       </c>
       <c r="G11">
-        <v>2.054210148758759</v>
+        <v>2.126421292787949</v>
       </c>
       <c r="H11">
-        <v>2.093055675482454</v>
+        <v>2.110345075926763</v>
       </c>
       <c r="I11">
-        <v>2.035873439649509</v>
+        <v>2.155482974948598</v>
       </c>
       <c r="J11">
-        <v>2.13137296904072</v>
+        <v>2.14119040410545</v>
       </c>
       <c r="K11">
-        <v>2.066333417638363</v>
+        <v>2.167383219044172</v>
       </c>
       <c r="L11">
-        <v>2.154491671600037</v>
+        <v>2.109745306585589</v>
       </c>
       <c r="M11">
-        <v>2.182338655648112</v>
+        <v>2.072502889874492</v>
       </c>
       <c r="N11">
-        <v>2.033308850205681</v>
+        <v>2.007194303457318</v>
       </c>
       <c r="O11">
-        <v>2.020375027800959</v>
+        <v>1.978729751903615</v>
       </c>
       <c r="P11">
-        <v>1.942274893900687</v>
+        <v>1.933253927776885</v>
       </c>
       <c r="Q11">
-        <v>1.967969821198437</v>
+        <v>2.015941694024693</v>
       </c>
       <c r="R11">
-        <v>1.868656032078543</v>
+        <v>2.021176974825883</v>
       </c>
       <c r="S11">
-        <v>1.866824996494806</v>
+        <v>1.972800259031662</v>
       </c>
       <c r="T11">
-        <v>1.868609601239897</v>
+        <v>1.981760153692813</v>
       </c>
       <c r="U11">
-        <v>1.826184529816823</v>
+        <v>1.885944275373693</v>
       </c>
       <c r="V11">
-        <v>1.960181836617129</v>
+        <v>1.885422391228569</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3807,61 +3807,61 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>2.964469243041856</v>
+        <v>2.960495558509389</v>
       </c>
       <c r="E12">
-        <v>3.526403657937192</v>
+        <v>3.619316380858874</v>
       </c>
       <c r="F12">
-        <v>3.769079092597226</v>
+        <v>3.75052998113979</v>
       </c>
       <c r="G12">
-        <v>3.875780653217184</v>
+        <v>3.760579974736133</v>
       </c>
       <c r="H12">
-        <v>3.85700202210319</v>
+        <v>3.876171148281616</v>
       </c>
       <c r="I12">
-        <v>3.717442735396691</v>
+        <v>3.668042504701167</v>
       </c>
       <c r="J12">
-        <v>3.793982384216389</v>
+        <v>3.72956445226668</v>
       </c>
       <c r="K12">
-        <v>3.801662452148665</v>
+        <v>3.692455023697371</v>
       </c>
       <c r="L12">
-        <v>3.783367663434699</v>
+        <v>3.671555229627265</v>
       </c>
       <c r="M12">
-        <v>3.832261817732212</v>
+        <v>3.687944262432445</v>
       </c>
       <c r="N12">
-        <v>3.518748146471385</v>
+        <v>3.56595155928942</v>
       </c>
       <c r="O12">
-        <v>3.312985837582829</v>
+        <v>3.369055464885002</v>
       </c>
       <c r="P12">
-        <v>3.159800747715824</v>
+        <v>3.151146073179686</v>
       </c>
       <c r="Q12">
-        <v>2.974369436873411</v>
+        <v>3.072943402083149</v>
       </c>
       <c r="R12">
-        <v>2.918220604896789</v>
+        <v>2.8010915002082</v>
       </c>
       <c r="S12">
-        <v>2.793543068757079</v>
+        <v>2.893055901707424</v>
       </c>
       <c r="T12">
-        <v>2.661700081337652</v>
+        <v>2.841548689095753</v>
       </c>
       <c r="U12">
-        <v>2.566873163683298</v>
+        <v>2.715176123425751</v>
       </c>
       <c r="V12">
-        <v>2.597841382114555</v>
+        <v>2.605992447054525</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -3875,61 +3875,61 @@
         <v>43</v>
       </c>
       <c r="D13">
-        <v>2.351450385660279</v>
+        <v>2.264920492801078</v>
       </c>
       <c r="E13">
-        <v>2.412978686903413</v>
+        <v>2.352799441084305</v>
       </c>
       <c r="F13">
-        <v>2.378669153486305</v>
+        <v>2.305951060085575</v>
       </c>
       <c r="G13">
-        <v>2.372378162550042</v>
+        <v>2.34422125155593</v>
       </c>
       <c r="H13">
-        <v>2.496844656519464</v>
+        <v>2.519995809760831</v>
       </c>
       <c r="I13">
-        <v>2.428059268947545</v>
+        <v>2.435202961557825</v>
       </c>
       <c r="J13">
-        <v>2.556216814911811</v>
+        <v>2.663534081006722</v>
       </c>
       <c r="K13">
-        <v>2.658966182735432</v>
+        <v>2.52156478945939</v>
       </c>
       <c r="L13">
-        <v>2.630337484699356</v>
+        <v>2.531499102936256</v>
       </c>
       <c r="M13">
-        <v>2.693172615625818</v>
+        <v>2.658369148950315</v>
       </c>
       <c r="N13">
-        <v>2.932610073277666</v>
+        <v>2.907667804961796</v>
       </c>
       <c r="O13">
-        <v>3.148355953418381</v>
+        <v>3.108290430069855</v>
       </c>
       <c r="P13">
-        <v>3.170778035249443</v>
+        <v>3.114377839099508</v>
       </c>
       <c r="Q13">
-        <v>3.21613847840384</v>
+        <v>3.178537531394312</v>
       </c>
       <c r="R13">
-        <v>3.193731786573477</v>
+        <v>3.207966761517334</v>
       </c>
       <c r="S13">
-        <v>3.176237359569015</v>
+        <v>3.073507600321162</v>
       </c>
       <c r="T13">
-        <v>3.046823611911037</v>
+        <v>3.013193589471979</v>
       </c>
       <c r="U13">
-        <v>3.048315461784232</v>
+        <v>2.987103724086136</v>
       </c>
       <c r="V13">
-        <v>3.036616539653127</v>
+        <v>3.032240111347724</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3943,61 +3943,61 @@
         <v>44</v>
       </c>
       <c r="D14">
-        <v>2.312525082903993</v>
+        <v>2.347116358322784</v>
       </c>
       <c r="E14">
-        <v>2.307413247960509</v>
+        <v>2.210592444372331</v>
       </c>
       <c r="F14">
-        <v>2.231134248271259</v>
+        <v>2.274975998401916</v>
       </c>
       <c r="G14">
-        <v>2.292922964014646</v>
+        <v>2.309595319857843</v>
       </c>
       <c r="H14">
-        <v>2.270690163900355</v>
+        <v>2.290682607193305</v>
       </c>
       <c r="I14">
-        <v>2.237261743249841</v>
+        <v>2.309103504884411</v>
       </c>
       <c r="J14">
-        <v>2.35407974235621</v>
+        <v>2.25065550360411</v>
       </c>
       <c r="K14">
-        <v>2.226153710678064</v>
+        <v>2.264977485950885</v>
       </c>
       <c r="L14">
-        <v>2.208941539699143</v>
+        <v>2.283841725919637</v>
       </c>
       <c r="M14">
-        <v>2.239508054451071</v>
+        <v>2.26387670775751</v>
       </c>
       <c r="N14">
-        <v>2.205789242091909</v>
+        <v>2.19426793642298</v>
       </c>
       <c r="O14">
-        <v>2.184147923488011</v>
+        <v>2.140517263582793</v>
       </c>
       <c r="P14">
-        <v>2.240690082546384</v>
+        <v>2.194985660085031</v>
       </c>
       <c r="Q14">
-        <v>2.111576858605101</v>
+        <v>2.213350289336378</v>
       </c>
       <c r="R14">
-        <v>2.126222729139694</v>
+        <v>2.24554353097324</v>
       </c>
       <c r="S14">
-        <v>2.207821136623924</v>
+        <v>2.254385157695821</v>
       </c>
       <c r="T14">
-        <v>2.187430810537469</v>
+        <v>2.149720039052445</v>
       </c>
       <c r="U14">
-        <v>2.202857045158557</v>
+        <v>2.20364818831729</v>
       </c>
       <c r="V14">
-        <v>2.154709362596497</v>
+        <v>2.1519387974969</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -4011,61 +4011,61 @@
         <v>44</v>
       </c>
       <c r="D15">
-        <v>3.776911399970748</v>
+        <v>3.801529437614062</v>
       </c>
       <c r="E15">
-        <v>4.351061140957724</v>
+        <v>4.34108387799361</v>
       </c>
       <c r="F15">
-        <v>4.168407213568545</v>
+        <v>4.102231164454</v>
       </c>
       <c r="G15">
-        <v>3.837861967481907</v>
+        <v>3.827993042995085</v>
       </c>
       <c r="H15">
-        <v>3.482949594217177</v>
+        <v>3.612406199219828</v>
       </c>
       <c r="I15">
-        <v>3.255825722883864</v>
+        <v>3.232282891206317</v>
       </c>
       <c r="J15">
-        <v>3.071834449503807</v>
+        <v>2.931532334275631</v>
       </c>
       <c r="K15">
-        <v>2.861619259085669</v>
+        <v>2.915725222672289</v>
       </c>
       <c r="L15">
-        <v>2.667442656937284</v>
+        <v>2.825907750285174</v>
       </c>
       <c r="M15">
-        <v>2.640543566093509</v>
+        <v>2.65719384310566</v>
       </c>
       <c r="N15">
-        <v>2.216217032984976</v>
+        <v>2.234252526724106</v>
       </c>
       <c r="O15">
-        <v>1.964020569256419</v>
+        <v>2.032536694108943</v>
       </c>
       <c r="P15">
-        <v>1.933329978545326</v>
+        <v>2.011469809552108</v>
       </c>
       <c r="Q15">
-        <v>1.891551390554286</v>
+        <v>1.887637286560794</v>
       </c>
       <c r="R15">
-        <v>1.835598923006985</v>
+        <v>1.881876476532055</v>
       </c>
       <c r="S15">
-        <v>1.799205896264904</v>
+        <v>1.886510480056529</v>
       </c>
       <c r="T15">
-        <v>1.655455410704159</v>
+        <v>1.874732370846971</v>
       </c>
       <c r="U15">
-        <v>1.649879109591835</v>
+        <v>1.855728001333787</v>
       </c>
       <c r="V15">
-        <v>1.611047144500321</v>
+        <v>1.777350519818043</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -4079,61 +4079,61 @@
         <v>44</v>
       </c>
       <c r="D16">
-        <v>2.475029609943308</v>
+        <v>2.414797596981433</v>
       </c>
       <c r="E16">
-        <v>2.527829108553689</v>
+        <v>2.650016881536309</v>
       </c>
       <c r="F16">
-        <v>2.709792839536936</v>
+        <v>2.812584185214275</v>
       </c>
       <c r="G16">
-        <v>2.653016128610192</v>
+        <v>2.769642359953142</v>
       </c>
       <c r="H16">
-        <v>2.942610007928636</v>
+        <v>2.812154947348724</v>
       </c>
       <c r="I16">
-        <v>2.865150252900852</v>
+        <v>2.84783659234978</v>
       </c>
       <c r="J16">
-        <v>2.846519571507317</v>
+        <v>2.999673427869427</v>
       </c>
       <c r="K16">
-        <v>2.973783035428176</v>
+        <v>2.821461959615369</v>
       </c>
       <c r="L16">
-        <v>2.92938787824896</v>
+        <v>2.916621580894076</v>
       </c>
       <c r="M16">
-        <v>2.902083973327062</v>
+        <v>2.787814031392843</v>
       </c>
       <c r="N16">
-        <v>2.952215912560544</v>
+        <v>2.859115962898382</v>
       </c>
       <c r="O16">
-        <v>2.822920080692787</v>
+        <v>2.847478076199266</v>
       </c>
       <c r="P16">
-        <v>2.692505398507702</v>
+        <v>2.775489780044096</v>
       </c>
       <c r="Q16">
-        <v>2.64845166883961</v>
+        <v>2.72155199874265</v>
       </c>
       <c r="R16">
-        <v>2.63144005722127</v>
+        <v>2.700915289120795</v>
       </c>
       <c r="S16">
-        <v>2.720248446670021</v>
+        <v>2.675524645647863</v>
       </c>
       <c r="T16">
-        <v>2.63199301067227</v>
+        <v>2.637381836774963</v>
       </c>
       <c r="U16">
-        <v>2.65142611040011</v>
+        <v>2.708139464956785</v>
       </c>
       <c r="V16">
-        <v>2.681855541944525</v>
+        <v>2.663058501181207</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -4147,61 +4147,61 @@
         <v>45</v>
       </c>
       <c r="D17">
-        <v>2.306824969832191</v>
+        <v>2.361567300183708</v>
       </c>
       <c r="E17">
-        <v>2.358111296112019</v>
+        <v>2.299322059661419</v>
       </c>
       <c r="F17">
-        <v>2.299822335073541</v>
+        <v>2.190564572704408</v>
       </c>
       <c r="G17">
-        <v>2.163240688665077</v>
+        <v>2.201868543731055</v>
       </c>
       <c r="H17">
-        <v>2.146839934736484</v>
+        <v>2.19894654492508</v>
       </c>
       <c r="I17">
-        <v>2.152501647092708</v>
+        <v>2.140760455205116</v>
       </c>
       <c r="J17">
-        <v>2.107834778849045</v>
+        <v>2.147329097782621</v>
       </c>
       <c r="K17">
-        <v>2.154308579146985</v>
+        <v>2.101190587229137</v>
       </c>
       <c r="L17">
-        <v>2.095900822316669</v>
+        <v>2.002275244421143</v>
       </c>
       <c r="M17">
-        <v>2.104667875633201</v>
+        <v>2.08461220207752</v>
       </c>
       <c r="N17">
-        <v>2.022648732593553</v>
+        <v>1.956033427769097</v>
       </c>
       <c r="O17">
-        <v>1.923389714813769</v>
+        <v>1.959356929887476</v>
       </c>
       <c r="P17">
-        <v>1.891664134304966</v>
+        <v>1.977658484321321</v>
       </c>
       <c r="Q17">
-        <v>1.923855688937796</v>
+        <v>1.849061220227401</v>
       </c>
       <c r="R17">
-        <v>1.835574808320047</v>
+        <v>1.74063671763528</v>
       </c>
       <c r="S17">
-        <v>1.883708518158729</v>
+        <v>1.783243607438333</v>
       </c>
       <c r="T17">
-        <v>1.808101164923699</v>
+        <v>1.835214398844539</v>
       </c>
       <c r="U17">
-        <v>1.73749168855813</v>
+        <v>1.821842454778311</v>
       </c>
       <c r="V17">
-        <v>1.868758648758494</v>
+        <v>1.766654513038297</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -4215,61 +4215,61 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>3.584461152511509</v>
+        <v>3.548596796068347</v>
       </c>
       <c r="E18">
-        <v>3.962253029988667</v>
+        <v>4.097347688105629</v>
       </c>
       <c r="F18">
-        <v>4.219611635532008</v>
+        <v>4.345942622226208</v>
       </c>
       <c r="G18">
-        <v>4.301371740825153</v>
+        <v>4.409237305386801</v>
       </c>
       <c r="H18">
-        <v>4.425139234682861</v>
+        <v>4.464857428003782</v>
       </c>
       <c r="I18">
-        <v>4.325351078315398</v>
+        <v>4.466442114379712</v>
       </c>
       <c r="J18">
-        <v>4.383858105461786</v>
+        <v>4.351181638974671</v>
       </c>
       <c r="K18">
-        <v>4.291030483629531</v>
+        <v>4.31448167975826</v>
       </c>
       <c r="L18">
-        <v>4.214762866072108</v>
+        <v>4.311967039310508</v>
       </c>
       <c r="M18">
-        <v>4.26268873424543</v>
+        <v>4.266765840407592</v>
       </c>
       <c r="N18">
-        <v>4.064755726616326</v>
+        <v>4.082561116817002</v>
       </c>
       <c r="O18">
-        <v>4.022969968253774</v>
+        <v>3.933226080705616</v>
       </c>
       <c r="P18">
-        <v>3.96191926197514</v>
+        <v>3.854972162038123</v>
       </c>
       <c r="Q18">
-        <v>3.895693159113099</v>
+        <v>3.829482103559117</v>
       </c>
       <c r="R18">
-        <v>3.857494261120244</v>
+        <v>3.822399791447363</v>
       </c>
       <c r="S18">
-        <v>3.848330019136022</v>
+        <v>3.866167027904261</v>
       </c>
       <c r="T18">
-        <v>3.818370188865059</v>
+        <v>3.870747423420654</v>
       </c>
       <c r="U18">
-        <v>3.796453867384694</v>
+        <v>3.801530108781044</v>
       </c>
       <c r="V18">
-        <v>3.810235504643254</v>
+        <v>3.674949072929191</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -4283,61 +4283,61 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>2.36689613100339</v>
+        <v>2.328305115745292</v>
       </c>
       <c r="E19">
-        <v>2.345189699871946</v>
+        <v>2.490315322892831</v>
       </c>
       <c r="F19">
-        <v>2.387779380317259</v>
+        <v>2.40320322098756</v>
       </c>
       <c r="G19">
-        <v>2.449641805783329</v>
+        <v>2.503826177738152</v>
       </c>
       <c r="H19">
-        <v>2.413927854562228</v>
+        <v>2.563425694005146</v>
       </c>
       <c r="I19">
-        <v>2.466328228413709</v>
+        <v>2.614615596590737</v>
       </c>
       <c r="J19">
-        <v>2.576048461584963</v>
+        <v>2.699234762466539</v>
       </c>
       <c r="K19">
-        <v>2.554905019073517</v>
+        <v>2.698126966008083</v>
       </c>
       <c r="L19">
-        <v>2.6865188559769</v>
+        <v>2.73602193181293</v>
       </c>
       <c r="M19">
-        <v>2.656229298336233</v>
+        <v>2.739537605657122</v>
       </c>
       <c r="N19">
-        <v>2.640464931662611</v>
+        <v>2.698129192279355</v>
       </c>
       <c r="O19">
-        <v>2.66524613751647</v>
+        <v>2.617119382786196</v>
       </c>
       <c r="P19">
-        <v>2.611645113201486</v>
+        <v>2.580753107640664</v>
       </c>
       <c r="Q19">
-        <v>2.599494234274637</v>
+        <v>2.47623091327372</v>
       </c>
       <c r="R19">
-        <v>2.524155170571706</v>
+        <v>2.438042920857298</v>
       </c>
       <c r="S19">
-        <v>2.350263368342794</v>
+        <v>2.50806475855827</v>
       </c>
       <c r="T19">
-        <v>2.372172710823835</v>
+        <v>2.347591727498508</v>
       </c>
       <c r="U19">
-        <v>2.333040166815323</v>
+        <v>2.282065629201502</v>
       </c>
       <c r="V19">
-        <v>2.382803156013739</v>
+        <v>2.287946506334858</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -4351,61 +4351,61 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>2.321784663854073</v>
+        <v>2.407783237490589</v>
       </c>
       <c r="E20">
-        <v>2.360784910833463</v>
+        <v>2.269335983359788</v>
       </c>
       <c r="F20">
-        <v>2.116675387969509</v>
+        <v>2.129327494522103</v>
       </c>
       <c r="G20">
-        <v>2.138648553966319</v>
+        <v>2.093603647670815</v>
       </c>
       <c r="H20">
-        <v>2.120375862276925</v>
+        <v>2.092817053759227</v>
       </c>
       <c r="I20">
-        <v>2.051058482288666</v>
+        <v>1.995684454830609</v>
       </c>
       <c r="J20">
-        <v>2.053586211539368</v>
+        <v>1.994473564457375</v>
       </c>
       <c r="K20">
-        <v>1.930540785234583</v>
+        <v>1.939964376008653</v>
       </c>
       <c r="L20">
-        <v>1.915424380337519</v>
+        <v>1.920638266868149</v>
       </c>
       <c r="M20">
-        <v>1.946041636704116</v>
+        <v>2.035349099276703</v>
       </c>
       <c r="N20">
-        <v>1.898806373131104</v>
+        <v>1.868548151901307</v>
       </c>
       <c r="O20">
-        <v>1.931092194787479</v>
+        <v>1.906554109665179</v>
       </c>
       <c r="P20">
-        <v>1.914950394386507</v>
+        <v>1.911282356791499</v>
       </c>
       <c r="Q20">
-        <v>1.89675367729409</v>
+        <v>1.765019188567998</v>
       </c>
       <c r="R20">
-        <v>1.868934256357655</v>
+        <v>1.849320379558732</v>
       </c>
       <c r="S20">
-        <v>1.770868136356455</v>
+        <v>1.859140766564644</v>
       </c>
       <c r="T20">
-        <v>1.764276678492738</v>
+        <v>1.787489991328519</v>
       </c>
       <c r="U20">
-        <v>1.92693227258245</v>
+        <v>1.888740056616944</v>
       </c>
       <c r="V20">
-        <v>1.782697686436667</v>
+        <v>1.842632836506771</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -4419,61 +4419,61 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>4.584307042556731</v>
+        <v>4.533278886526918</v>
       </c>
       <c r="E21">
-        <v>5.608146178598662</v>
+        <v>5.725338684275092</v>
       </c>
       <c r="F21">
-        <v>6.014883308616754</v>
+        <v>6.175483843250226</v>
       </c>
       <c r="G21">
-        <v>6.171468941981667</v>
+        <v>6.361389092744497</v>
       </c>
       <c r="H21">
-        <v>6.334983324768199</v>
+        <v>6.453641223869069</v>
       </c>
       <c r="I21">
-        <v>6.293892444618161</v>
+        <v>6.536628745817508</v>
       </c>
       <c r="J21">
-        <v>6.308730117587323</v>
+        <v>6.556280300004887</v>
       </c>
       <c r="K21">
-        <v>6.419432773443116</v>
+        <v>6.559135446069139</v>
       </c>
       <c r="L21">
-        <v>6.474009625526054</v>
+        <v>6.590612691477165</v>
       </c>
       <c r="M21">
-        <v>6.491539811121482</v>
+        <v>6.61695579627782</v>
       </c>
       <c r="N21">
-        <v>6.514946706592335</v>
+        <v>6.563822100705928</v>
       </c>
       <c r="O21">
-        <v>6.588771882874648</v>
+        <v>6.493712378498627</v>
       </c>
       <c r="P21">
-        <v>6.489495299799858</v>
+        <v>6.407422324598777</v>
       </c>
       <c r="Q21">
-        <v>6.312474801310893</v>
+        <v>6.372249605890629</v>
       </c>
       <c r="R21">
-        <v>6.362241634903941</v>
+        <v>6.21607513455684</v>
       </c>
       <c r="S21">
-        <v>6.193312515521605</v>
+        <v>6.026755948498399</v>
       </c>
       <c r="T21">
-        <v>6.139797612166392</v>
+        <v>5.897681102548876</v>
       </c>
       <c r="U21">
-        <v>6.066839509501499</v>
+        <v>5.852718525302412</v>
       </c>
       <c r="V21">
-        <v>5.940433101759608</v>
+        <v>5.791264612033501</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -4487,61 +4487,61 @@
         <v>46</v>
       </c>
       <c r="D22">
-        <v>2.52632986348333</v>
+        <v>2.368676189334792</v>
       </c>
       <c r="E22">
-        <v>2.502346421630611</v>
+        <v>2.525494596072268</v>
       </c>
       <c r="F22">
-        <v>2.5165989786091</v>
+        <v>2.600894549275659</v>
       </c>
       <c r="G22">
-        <v>2.703798250689891</v>
+        <v>2.616497033076435</v>
       </c>
       <c r="H22">
-        <v>2.726219969500555</v>
+        <v>2.816419463390597</v>
       </c>
       <c r="I22">
-        <v>2.723171554541422</v>
+        <v>2.831426952349958</v>
       </c>
       <c r="J22">
-        <v>2.876073066490736</v>
+        <v>2.923309246843904</v>
       </c>
       <c r="K22">
-        <v>2.881626885675501</v>
+        <v>2.784864268454678</v>
       </c>
       <c r="L22">
-        <v>2.969512942343145</v>
+        <v>2.902974715980021</v>
       </c>
       <c r="M22">
-        <v>2.984528759253744</v>
+        <v>2.921792265004969</v>
       </c>
       <c r="N22">
-        <v>3.227356166487506</v>
+        <v>3.137222884206397</v>
       </c>
       <c r="O22">
-        <v>3.393994254815189</v>
+        <v>3.285153444899207</v>
       </c>
       <c r="P22">
-        <v>3.340942890714674</v>
+        <v>3.429414585755151</v>
       </c>
       <c r="Q22">
-        <v>3.579204126457901</v>
+        <v>3.589565967445131</v>
       </c>
       <c r="R22">
-        <v>3.586748365739388</v>
+        <v>3.548894917883204</v>
       </c>
       <c r="S22">
-        <v>3.581711424851278</v>
+        <v>3.5864256761036</v>
       </c>
       <c r="T22">
-        <v>3.658576452516481</v>
+        <v>3.578029759623815</v>
       </c>
       <c r="U22">
-        <v>3.657675460547704</v>
+        <v>3.630001489645637</v>
       </c>
       <c r="V22">
-        <v>3.688733520270231</v>
+        <v>3.637700917274543</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -4555,61 +4555,61 @@
         <v>46</v>
       </c>
       <c r="D23">
-        <v>3.307094907321539</v>
+        <v>3.01794868857949</v>
       </c>
       <c r="E23">
-        <v>3.963992161815148</v>
+        <v>3.916004941967949</v>
       </c>
       <c r="F23">
-        <v>4.231028821048772</v>
+        <v>4.182956777641225</v>
       </c>
       <c r="G23">
-        <v>4.433494678864583</v>
+        <v>4.477855716304024</v>
       </c>
       <c r="H23">
-        <v>4.645981152079432</v>
+        <v>4.578265529132635</v>
       </c>
       <c r="I23">
-        <v>4.65169716214389</v>
+        <v>4.784871112900428</v>
       </c>
       <c r="J23">
-        <v>4.68662723041546</v>
+        <v>4.77063052519677</v>
       </c>
       <c r="K23">
-        <v>4.830108654428543</v>
+        <v>4.789084103861035</v>
       </c>
       <c r="L23">
-        <v>4.742998405234193</v>
+        <v>4.802073047906891</v>
       </c>
       <c r="M23">
-        <v>4.828536240974541</v>
+        <v>4.86235983989364</v>
       </c>
       <c r="N23">
-        <v>5.02849749014885</v>
+        <v>5.036719770265271</v>
       </c>
       <c r="O23">
-        <v>5.075275264599604</v>
+        <v>5.187881706925734</v>
       </c>
       <c r="P23">
-        <v>5.164458669626019</v>
+        <v>5.152366394535984</v>
       </c>
       <c r="Q23">
-        <v>5.175335436104461</v>
+        <v>5.176306796408561</v>
       </c>
       <c r="R23">
-        <v>5.174198758157647</v>
+        <v>5.118685744058235</v>
       </c>
       <c r="S23">
-        <v>5.107903055426313</v>
+        <v>5.115168532350594</v>
       </c>
       <c r="T23">
-        <v>5.110692365787946</v>
+        <v>5.175895364040406</v>
       </c>
       <c r="U23">
-        <v>5.100710873464407</v>
+        <v>5.142346588897068</v>
       </c>
       <c r="V23">
-        <v>5.103878495897404</v>
+        <v>4.991304470736116</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -4623,61 +4623,61 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>2.408279988795095</v>
+        <v>2.366749711940693</v>
       </c>
       <c r="E24">
-        <v>2.351173011804206</v>
+        <v>2.350090057492799</v>
       </c>
       <c r="F24">
-        <v>2.362350449196947</v>
+        <v>2.381199922332115</v>
       </c>
       <c r="G24">
-        <v>2.194760590838788</v>
+        <v>2.266039558920383</v>
       </c>
       <c r="H24">
-        <v>2.236880844911972</v>
+        <v>2.268741750427494</v>
       </c>
       <c r="I24">
-        <v>2.210600294383539</v>
+        <v>2.264865899577728</v>
       </c>
       <c r="J24">
-        <v>2.155200381337481</v>
+        <v>2.225695183539451</v>
       </c>
       <c r="K24">
-        <v>2.136668419569042</v>
+        <v>2.182644005271016</v>
       </c>
       <c r="L24">
-        <v>2.199595037780119</v>
+        <v>2.191830554312349</v>
       </c>
       <c r="M24">
-        <v>2.206161261115037</v>
+        <v>2.241480583812526</v>
       </c>
       <c r="N24">
-        <v>2.342800883700355</v>
+        <v>2.331242524146889</v>
       </c>
       <c r="O24">
-        <v>2.429668721659516</v>
+        <v>2.493364214067535</v>
       </c>
       <c r="P24">
-        <v>2.525634234389524</v>
+        <v>2.504720587318962</v>
       </c>
       <c r="Q24">
-        <v>2.591035293280975</v>
+        <v>2.683232721822495</v>
       </c>
       <c r="R24">
-        <v>2.765932423779762</v>
+        <v>2.677774833238857</v>
       </c>
       <c r="S24">
-        <v>2.830596801138729</v>
+        <v>2.718857734945877</v>
       </c>
       <c r="T24">
-        <v>2.865084951242849</v>
+        <v>2.810671386833081</v>
       </c>
       <c r="U24">
-        <v>2.935978043687392</v>
+        <v>2.848992271113837</v>
       </c>
       <c r="V24">
-        <v>2.954117759552701</v>
+        <v>2.939177998002852</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -4691,61 +4691,61 @@
         <v>46</v>
       </c>
       <c r="D25">
-        <v>3.426644487274666</v>
+        <v>3.368378507349653</v>
       </c>
       <c r="E25">
-        <v>4.119224530400544</v>
+        <v>3.947688809857839</v>
       </c>
       <c r="F25">
-        <v>4.348876590635973</v>
+        <v>4.268678939572736</v>
       </c>
       <c r="G25">
-        <v>4.4567742646807</v>
+        <v>4.356694903790444</v>
       </c>
       <c r="H25">
-        <v>4.587775635840845</v>
+        <v>4.525617999619084</v>
       </c>
       <c r="I25">
-        <v>4.596680482866343</v>
+        <v>4.627853864621819</v>
       </c>
       <c r="J25">
-        <v>4.63103166996451</v>
+        <v>4.523438877361706</v>
       </c>
       <c r="K25">
-        <v>4.642619384833464</v>
+        <v>4.652079729680636</v>
       </c>
       <c r="L25">
-        <v>4.61372119014839</v>
+        <v>4.596632502006599</v>
       </c>
       <c r="M25">
-        <v>4.562842774168102</v>
+        <v>4.605480630950463</v>
       </c>
       <c r="N25">
-        <v>4.562182703536267</v>
+        <v>4.595889116932335</v>
       </c>
       <c r="O25">
-        <v>4.560039963202242</v>
+        <v>4.433516057778799</v>
       </c>
       <c r="P25">
-        <v>4.438388065512113</v>
+        <v>4.523083467126939</v>
       </c>
       <c r="Q25">
-        <v>4.429223092026477</v>
+        <v>4.465910654845569</v>
       </c>
       <c r="R25">
-        <v>4.308036013757524</v>
+        <v>4.436565015158128</v>
       </c>
       <c r="S25">
-        <v>4.360237861600407</v>
+        <v>4.432014048717807</v>
       </c>
       <c r="T25">
-        <v>4.423926762756201</v>
+        <v>4.377454268718138</v>
       </c>
       <c r="U25">
-        <v>4.234033312983412</v>
+        <v>4.35948299686646</v>
       </c>
       <c r="V25">
-        <v>4.29935203643159</v>
+        <v>4.317838049431482</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -4759,61 +4759,61 @@
         <v>46</v>
       </c>
       <c r="D26">
-        <v>2.381347380662951</v>
+        <v>2.271765613182523</v>
       </c>
       <c r="E26">
-        <v>2.248998015331937</v>
+        <v>2.275872120716871</v>
       </c>
       <c r="F26">
-        <v>2.135395339884123</v>
+        <v>2.199351796465807</v>
       </c>
       <c r="G26">
-        <v>1.996688492348532</v>
+        <v>2.132355494562493</v>
       </c>
       <c r="H26">
-        <v>2.132691476604037</v>
+        <v>2.1384750479451</v>
       </c>
       <c r="I26">
-        <v>2.070241123997523</v>
+        <v>2.066662780801762</v>
       </c>
       <c r="J26">
-        <v>2.026189268202232</v>
+        <v>2.012451308962839</v>
       </c>
       <c r="K26">
-        <v>1.980950095354448</v>
+        <v>2.061585942490965</v>
       </c>
       <c r="L26">
-        <v>2.03789104305924</v>
+        <v>2.053128034614156</v>
       </c>
       <c r="M26">
-        <v>2.087807505636168</v>
+        <v>2.031384988809884</v>
       </c>
       <c r="N26">
-        <v>2.116023226230637</v>
+        <v>1.849358130687395</v>
       </c>
       <c r="O26">
-        <v>1.98184014909921</v>
+        <v>2.049971498181938</v>
       </c>
       <c r="P26">
-        <v>2.1284621819373</v>
+        <v>2.023999608241091</v>
       </c>
       <c r="Q26">
-        <v>1.982195495528984</v>
+        <v>2.084064885754999</v>
       </c>
       <c r="R26">
-        <v>2.150824601944302</v>
+        <v>2.16415065046806</v>
       </c>
       <c r="S26">
-        <v>2.173638594841293</v>
+        <v>2.181498924568669</v>
       </c>
       <c r="T26">
-        <v>2.231225620070861</v>
+        <v>2.189320499761528</v>
       </c>
       <c r="U26">
-        <v>2.282894132401564</v>
+        <v>2.21713372392596</v>
       </c>
       <c r="V26">
-        <v>2.36116405564442</v>
+        <v>2.370219850839363</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -4827,61 +4827,61 @@
         <v>46</v>
       </c>
       <c r="D27">
-        <v>2.654051680205935</v>
+        <v>2.533939749848039</v>
       </c>
       <c r="E27">
-        <v>2.67933545211241</v>
+        <v>2.796342283686739</v>
       </c>
       <c r="F27">
-        <v>2.838251550645764</v>
+        <v>2.831156740497461</v>
       </c>
       <c r="G27">
-        <v>2.81403808056775</v>
+        <v>2.982324476694315</v>
       </c>
       <c r="H27">
-        <v>2.947739685078456</v>
+        <v>3.009324898659403</v>
       </c>
       <c r="I27">
-        <v>2.949322308523347</v>
+        <v>2.990362417210834</v>
       </c>
       <c r="J27">
-        <v>3.05008400590258</v>
+        <v>2.930807825474033</v>
       </c>
       <c r="K27">
-        <v>3.008938765436356</v>
+        <v>2.933221873944742</v>
       </c>
       <c r="L27">
-        <v>3.030067142548868</v>
+        <v>3.046598178456471</v>
       </c>
       <c r="M27">
-        <v>2.972534118981142</v>
+        <v>3.090361454516572</v>
       </c>
       <c r="N27">
-        <v>3.036109886073631</v>
+        <v>2.991116605451433</v>
       </c>
       <c r="O27">
-        <v>3.074212937719278</v>
+        <v>3.052897007687532</v>
       </c>
       <c r="P27">
-        <v>3.006339823823261</v>
+        <v>3.003102125028001</v>
       </c>
       <c r="Q27">
-        <v>3.046271516122872</v>
+        <v>3.054889502367611</v>
       </c>
       <c r="R27">
-        <v>3.02219688813417</v>
+        <v>2.979867273214848</v>
       </c>
       <c r="S27">
-        <v>3.060340025851683</v>
+        <v>3.013301790188462</v>
       </c>
       <c r="T27">
-        <v>2.94511414436667</v>
+        <v>2.902783011783983</v>
       </c>
       <c r="U27">
-        <v>3.017165575749139</v>
+        <v>2.911942279836742</v>
       </c>
       <c r="V27">
-        <v>2.94928036495716</v>
+        <v>2.924745706072976</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -4895,61 +4895,61 @@
         <v>46</v>
       </c>
       <c r="D28">
-        <v>2.508543474134639</v>
+        <v>2.364135414260745</v>
       </c>
       <c r="E28">
-        <v>2.315111927612937</v>
+        <v>2.317088852917131</v>
       </c>
       <c r="F28">
-        <v>2.305051031068502</v>
+        <v>2.26263422065309</v>
       </c>
       <c r="G28">
-        <v>2.142807687906011</v>
+        <v>2.113212429558182</v>
       </c>
       <c r="H28">
-        <v>2.043395349584187</v>
+        <v>2.215497440251028</v>
       </c>
       <c r="I28">
-        <v>2.082084346949211</v>
+        <v>2.040921349662681</v>
       </c>
       <c r="J28">
-        <v>2.095390370307736</v>
+        <v>2.11044990902637</v>
       </c>
       <c r="K28">
-        <v>2.00430672114345</v>
+        <v>2.07964439804048</v>
       </c>
       <c r="L28">
-        <v>1.963234742050591</v>
+        <v>2.002534038276746</v>
       </c>
       <c r="M28">
-        <v>1.93935311628881</v>
+        <v>1.988448436336812</v>
       </c>
       <c r="N28">
-        <v>1.834107608781425</v>
+        <v>1.987271510426298</v>
       </c>
       <c r="O28">
-        <v>1.877723726201589</v>
+        <v>1.992714772789625</v>
       </c>
       <c r="P28">
-        <v>1.919689769778611</v>
+        <v>2.116851181622849</v>
       </c>
       <c r="Q28">
-        <v>2.043225775192639</v>
+        <v>2.039065453444633</v>
       </c>
       <c r="R28">
-        <v>2.024068019236756</v>
+        <v>2.089249335823031</v>
       </c>
       <c r="S28">
-        <v>2.00710405241625</v>
+        <v>2.022500697746994</v>
       </c>
       <c r="T28">
-        <v>2.050860347521266</v>
+        <v>2.24150837010392</v>
       </c>
       <c r="U28">
-        <v>2.173071957576431</v>
+        <v>2.209063236278609</v>
       </c>
       <c r="V28">
-        <v>2.142435395956639</v>
+        <v>2.280896891415422</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -4963,61 +4963,61 @@
         <v>47</v>
       </c>
       <c r="D29">
-        <v>2.36893194786406</v>
+        <v>2.445339947252386</v>
       </c>
       <c r="E29">
-        <v>2.406148750344717</v>
+        <v>2.435383143062585</v>
       </c>
       <c r="F29">
-        <v>2.42909190689433</v>
+        <v>2.295529970043152</v>
       </c>
       <c r="G29">
-        <v>2.377661241267768</v>
+        <v>2.30195345178634</v>
       </c>
       <c r="H29">
-        <v>2.351060648099215</v>
+        <v>2.441350341116601</v>
       </c>
       <c r="I29">
-        <v>2.476692951563507</v>
+        <v>2.427444285137748</v>
       </c>
       <c r="J29">
-        <v>2.284539823224464</v>
+        <v>2.455570004102569</v>
       </c>
       <c r="K29">
-        <v>2.334130992768921</v>
+        <v>2.318951237976822</v>
       </c>
       <c r="L29">
-        <v>2.283437227064726</v>
+        <v>2.313568862377619</v>
       </c>
       <c r="M29">
-        <v>2.385944308645516</v>
+        <v>2.291235465890669</v>
       </c>
       <c r="N29">
-        <v>2.305874164346716</v>
+        <v>2.176153712751893</v>
       </c>
       <c r="O29">
-        <v>2.247634915702695</v>
+        <v>2.186652864415046</v>
       </c>
       <c r="P29">
-        <v>2.223779418169483</v>
+        <v>2.228750739058099</v>
       </c>
       <c r="Q29">
-        <v>2.157999673504949</v>
+        <v>2.202037176356935</v>
       </c>
       <c r="R29">
-        <v>2.105988969618329</v>
+        <v>2.174140609028345</v>
       </c>
       <c r="S29">
-        <v>2.180403844461846</v>
+        <v>2.137624958656012</v>
       </c>
       <c r="T29">
-        <v>2.190226540230519</v>
+        <v>2.15807047239883</v>
       </c>
       <c r="U29">
-        <v>2.13046587508361</v>
+        <v>2.142380981104191</v>
       </c>
       <c r="V29">
-        <v>2.18724272278968</v>
+        <v>2.092925655846396</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -5031,61 +5031,61 @@
         <v>47</v>
       </c>
       <c r="D30">
-        <v>2.682959462214097</v>
+        <v>2.652980628044255</v>
       </c>
       <c r="E30">
-        <v>3.528626894695341</v>
+        <v>3.461114653538561</v>
       </c>
       <c r="F30">
-        <v>4.067187711182993</v>
+        <v>4.122833507094784</v>
       </c>
       <c r="G30">
-        <v>4.663515890335304</v>
+        <v>4.772957798004403</v>
       </c>
       <c r="H30">
-        <v>5.182053569709085</v>
+        <v>5.022532060368332</v>
       </c>
       <c r="I30">
-        <v>5.233919535246226</v>
+        <v>5.227052332995638</v>
       </c>
       <c r="J30">
-        <v>5.43133905872612</v>
+        <v>5.548479848012295</v>
       </c>
       <c r="K30">
-        <v>5.499716283022932</v>
+        <v>5.525240091256869</v>
       </c>
       <c r="L30">
-        <v>5.69601572354741</v>
+        <v>5.629274397230161</v>
       </c>
       <c r="M30">
-        <v>5.697831788815882</v>
+        <v>5.753581143973386</v>
       </c>
       <c r="N30">
-        <v>5.577656216894557</v>
+        <v>5.481674664011916</v>
       </c>
       <c r="O30">
-        <v>4.756965504442775</v>
+        <v>4.849916628532287</v>
       </c>
       <c r="P30">
-        <v>4.025906424750693</v>
+        <v>4.130515751514781</v>
       </c>
       <c r="Q30">
-        <v>3.439201203033369</v>
+        <v>3.501066472515526</v>
       </c>
       <c r="R30">
-        <v>2.970995405286259</v>
+        <v>3.178982878876905</v>
       </c>
       <c r="S30">
-        <v>2.528449758634464</v>
+        <v>2.577794674548911</v>
       </c>
       <c r="T30">
-        <v>2.184394972030108</v>
+        <v>2.167399214858552</v>
       </c>
       <c r="U30">
-        <v>1.796996239608731</v>
+        <v>2.170837998041744</v>
       </c>
       <c r="V30">
-        <v>1.608097274714948</v>
+        <v>1.931256783895765</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5099,61 +5099,61 @@
         <v>47</v>
       </c>
       <c r="D31">
-        <v>2.41176801808282</v>
+        <v>2.444974796331946</v>
       </c>
       <c r="E31">
-        <v>2.386280642587458</v>
+        <v>2.452115338506125</v>
       </c>
       <c r="F31">
-        <v>2.57125859234804</v>
+        <v>2.550237038029117</v>
       </c>
       <c r="G31">
-        <v>2.660310822053344</v>
+        <v>2.61980089846192</v>
       </c>
       <c r="H31">
-        <v>2.843750686087461</v>
+        <v>2.808685610884547</v>
       </c>
       <c r="I31">
-        <v>2.832797594441087</v>
+        <v>2.740120049178456</v>
       </c>
       <c r="J31">
-        <v>2.796445500828021</v>
+        <v>2.863666751403064</v>
       </c>
       <c r="K31">
-        <v>2.868542552701763</v>
+        <v>3.096513303546452</v>
       </c>
       <c r="L31">
-        <v>3.034312064246526</v>
+        <v>3.142136879975535</v>
       </c>
       <c r="M31">
-        <v>3.067853317958605</v>
+        <v>3.283603602910809</v>
       </c>
       <c r="N31">
-        <v>3.373382575142384</v>
+        <v>3.509546579189367</v>
       </c>
       <c r="O31">
-        <v>3.775735281797231</v>
+        <v>3.738357309417893</v>
       </c>
       <c r="P31">
-        <v>3.857010230324638</v>
+        <v>3.895167889124439</v>
       </c>
       <c r="Q31">
-        <v>3.930824247196206</v>
+        <v>3.921864949573054</v>
       </c>
       <c r="R31">
-        <v>3.927665524351659</v>
+        <v>4.074620276638907</v>
       </c>
       <c r="S31">
-        <v>4.046724207644967</v>
+        <v>4.049135278879642</v>
       </c>
       <c r="T31">
-        <v>4.046539399722739</v>
+        <v>4.045683510719901</v>
       </c>
       <c r="U31">
-        <v>4.127538427199985</v>
+        <v>3.972621855741714</v>
       </c>
       <c r="V31">
-        <v>3.984191654548858</v>
+        <v>4.025775525714067</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -5167,61 +5167,61 @@
         <v>47</v>
       </c>
       <c r="D32">
-        <v>4.443869213504299</v>
+        <v>4.267020183203821</v>
       </c>
       <c r="E32">
-        <v>5.00894179648216</v>
+        <v>5.012902946833514</v>
       </c>
       <c r="F32">
-        <v>4.98592282514116</v>
+        <v>5.077392934491089</v>
       </c>
       <c r="G32">
-        <v>4.904747567769021</v>
+        <v>4.990533693372694</v>
       </c>
       <c r="H32">
-        <v>4.734405701847698</v>
+        <v>4.739609343673821</v>
       </c>
       <c r="I32">
-        <v>4.647817888918722</v>
+        <v>4.58054609384967</v>
       </c>
       <c r="J32">
-        <v>4.463599275787324</v>
+        <v>4.588559119193214</v>
       </c>
       <c r="K32">
-        <v>4.301837777862948</v>
+        <v>4.541121169506149</v>
       </c>
       <c r="L32">
-        <v>4.239026813354442</v>
+        <v>4.38083645473092</v>
       </c>
       <c r="M32">
-        <v>4.087558417691876</v>
+        <v>4.245267827462465</v>
       </c>
       <c r="N32">
-        <v>3.61194254981601</v>
+        <v>3.76916709870738</v>
       </c>
       <c r="O32">
-        <v>3.359658984307856</v>
+        <v>3.488388922298356</v>
       </c>
       <c r="P32">
-        <v>3.249722579040858</v>
+        <v>3.420059227528909</v>
       </c>
       <c r="Q32">
-        <v>3.205963074426833</v>
+        <v>3.305706035162237</v>
       </c>
       <c r="R32">
-        <v>3.071327072761757</v>
+        <v>3.160531686597519</v>
       </c>
       <c r="S32">
-        <v>3.021080728172838</v>
+        <v>3.197860068122594</v>
       </c>
       <c r="T32">
-        <v>2.854578266266418</v>
+        <v>3.073245276563834</v>
       </c>
       <c r="U32">
-        <v>2.903400491471431</v>
+        <v>3.018626258652883</v>
       </c>
       <c r="V32">
-        <v>2.832772938277869</v>
+        <v>2.994337537493922</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -5235,61 +5235,61 @@
         <v>48</v>
       </c>
       <c r="D33">
-        <v>2.008050379030292</v>
+        <v>2.120047354808973</v>
       </c>
       <c r="E33">
-        <v>2.08781002733772</v>
+        <v>2.068772204825502</v>
       </c>
       <c r="F33">
-        <v>2.158000698298666</v>
+        <v>2.204008884758737</v>
       </c>
       <c r="G33">
-        <v>2.174709926450184</v>
+        <v>2.23037212416069</v>
       </c>
       <c r="H33">
-        <v>2.259742390268073</v>
+        <v>2.172562702242943</v>
       </c>
       <c r="I33">
-        <v>2.257592911908477</v>
+        <v>2.269132006084811</v>
       </c>
       <c r="J33">
-        <v>2.33761403111584</v>
+        <v>2.320441917268233</v>
       </c>
       <c r="K33">
-        <v>2.359401545223798</v>
+        <v>2.431522199925614</v>
       </c>
       <c r="L33">
-        <v>2.420137033972186</v>
+        <v>2.540721730968627</v>
       </c>
       <c r="M33">
-        <v>2.517875250080951</v>
+        <v>2.490030540522586</v>
       </c>
       <c r="N33">
-        <v>2.972725055985425</v>
+        <v>2.922951404551648</v>
       </c>
       <c r="O33">
-        <v>3.394545827497398</v>
+        <v>3.416797751935745</v>
       </c>
       <c r="P33">
-        <v>3.586630126054683</v>
+        <v>3.690668722577084</v>
       </c>
       <c r="Q33">
-        <v>3.920765803972254</v>
+        <v>3.968821974759235</v>
       </c>
       <c r="R33">
-        <v>3.913845810644375</v>
+        <v>4.074191612937188</v>
       </c>
       <c r="S33">
-        <v>4.131437417244745</v>
+        <v>4.236757822518621</v>
       </c>
       <c r="T33">
-        <v>4.382781941188463</v>
+        <v>4.485907379905643</v>
       </c>
       <c r="U33">
-        <v>4.583311097050126</v>
+        <v>4.611218846694597</v>
       </c>
       <c r="V33">
-        <v>4.611974146830772</v>
+        <v>4.667700963874701</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -5303,61 +5303,61 @@
         <v>47</v>
       </c>
       <c r="D34">
-        <v>2.893736012327723</v>
+        <v>2.89264287245282</v>
       </c>
       <c r="E34">
-        <v>3.350646781146517</v>
+        <v>3.42924228232874</v>
       </c>
       <c r="F34">
-        <v>3.352457980020162</v>
+        <v>3.587388433257535</v>
       </c>
       <c r="G34">
-        <v>3.419043632428807</v>
+        <v>3.681103347273825</v>
       </c>
       <c r="H34">
-        <v>3.501756564754004</v>
+        <v>3.737427420709889</v>
       </c>
       <c r="I34">
-        <v>3.451397030601171</v>
+        <v>3.767845830490641</v>
       </c>
       <c r="J34">
-        <v>3.58515112064688</v>
+        <v>3.748153526995809</v>
       </c>
       <c r="K34">
-        <v>3.516326890062667</v>
+        <v>3.668499747253755</v>
       </c>
       <c r="L34">
-        <v>3.507942077441163</v>
+        <v>3.646465603741483</v>
       </c>
       <c r="M34">
-        <v>3.528162490177233</v>
+        <v>3.609201521565323</v>
       </c>
       <c r="N34">
-        <v>3.343394545445387</v>
+        <v>3.385382326597631</v>
       </c>
       <c r="O34">
-        <v>3.260383750211492</v>
+        <v>3.301463579707684</v>
       </c>
       <c r="P34">
-        <v>3.269732136336275</v>
+        <v>3.257291925914597</v>
       </c>
       <c r="Q34">
-        <v>3.207656839493727</v>
+        <v>3.156392095000588</v>
       </c>
       <c r="R34">
-        <v>3.113261084151909</v>
+        <v>3.277765961766755</v>
       </c>
       <c r="S34">
-        <v>3.140968556530044</v>
+        <v>3.194446922358798</v>
       </c>
       <c r="T34">
-        <v>3.119736612805442</v>
+        <v>3.226921187233942</v>
       </c>
       <c r="U34">
-        <v>3.141668883898796</v>
+        <v>3.14111896438735</v>
       </c>
       <c r="V34">
-        <v>3.163272006259247</v>
+        <v>3.108032399549933</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -5371,61 +5371,61 @@
         <v>47</v>
       </c>
       <c r="D35">
-        <v>2.247073741208072</v>
+        <v>2.323168471635155</v>
       </c>
       <c r="E35">
-        <v>2.414860332018333</v>
+        <v>2.596715909471368</v>
       </c>
       <c r="F35">
-        <v>2.79372949794336</v>
+        <v>2.774139392779811</v>
       </c>
       <c r="G35">
-        <v>2.875755872933708</v>
+        <v>2.955446909220026</v>
       </c>
       <c r="H35">
-        <v>3.043109119766865</v>
+        <v>3.088301243270034</v>
       </c>
       <c r="I35">
-        <v>3.327820081191149</v>
+        <v>3.150430464653836</v>
       </c>
       <c r="J35">
-        <v>3.367507021752309</v>
+        <v>3.344180085603391</v>
       </c>
       <c r="K35">
-        <v>3.418125708718041</v>
+        <v>3.356893448778565</v>
       </c>
       <c r="L35">
-        <v>3.495465646500283</v>
+        <v>3.367214444953297</v>
       </c>
       <c r="M35">
-        <v>3.407652146908537</v>
+        <v>3.527144635188563</v>
       </c>
       <c r="N35">
-        <v>3.598065873055883</v>
+        <v>3.61704981018543</v>
       </c>
       <c r="O35">
-        <v>3.65470874414101</v>
+        <v>3.786646683513148</v>
       </c>
       <c r="P35">
-        <v>3.729682664345613</v>
+        <v>3.766811916097748</v>
       </c>
       <c r="Q35">
-        <v>3.71361435128798</v>
+        <v>3.8286874440687</v>
       </c>
       <c r="R35">
-        <v>3.725632798573093</v>
+        <v>3.790770090135598</v>
       </c>
       <c r="S35">
-        <v>3.692754868714487</v>
+        <v>3.780752141241225</v>
       </c>
       <c r="T35">
-        <v>3.819923594358312</v>
+        <v>3.902794481141485</v>
       </c>
       <c r="U35">
-        <v>3.850996707220967</v>
+        <v>3.775621414746501</v>
       </c>
       <c r="V35">
-        <v>3.840626280807168</v>
+        <v>3.84531458178901</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -5439,61 +5439,61 @@
         <v>47</v>
       </c>
       <c r="D36">
-        <v>2.48734011381075</v>
+        <v>2.603720072783883</v>
       </c>
       <c r="E36">
-        <v>2.619285082365686</v>
+        <v>2.540738076638271</v>
       </c>
       <c r="F36">
-        <v>2.618236114089441</v>
+        <v>2.720851749314558</v>
       </c>
       <c r="G36">
-        <v>2.798560565891354</v>
+        <v>2.678874065685207</v>
       </c>
       <c r="H36">
-        <v>2.770867935133918</v>
+        <v>2.734705710373733</v>
       </c>
       <c r="I36">
-        <v>2.737534401131518</v>
+        <v>2.710189466689247</v>
       </c>
       <c r="J36">
-        <v>2.9188330403328</v>
+        <v>2.699298925036753</v>
       </c>
       <c r="K36">
-        <v>2.903511447777437</v>
+        <v>2.718386330526577</v>
       </c>
       <c r="L36">
-        <v>2.786521477656974</v>
+        <v>2.758078280376293</v>
       </c>
       <c r="M36">
-        <v>2.769705357224551</v>
+        <v>2.700817009475163</v>
       </c>
       <c r="N36">
-        <v>2.634914858107321</v>
+        <v>2.64494223501646</v>
       </c>
       <c r="O36">
-        <v>2.583499059531019</v>
+        <v>2.694512559382245</v>
       </c>
       <c r="P36">
-        <v>2.664237003075945</v>
+        <v>2.667090686554513</v>
       </c>
       <c r="Q36">
-        <v>2.594559057696537</v>
+        <v>2.556239915522754</v>
       </c>
       <c r="R36">
-        <v>2.686382221593983</v>
+        <v>2.559666350957438</v>
       </c>
       <c r="S36">
-        <v>2.603815689435991</v>
+        <v>2.636686358190949</v>
       </c>
       <c r="T36">
-        <v>2.619232193770984</v>
+        <v>2.586422888184668</v>
       </c>
       <c r="U36">
-        <v>2.599896081066921</v>
+        <v>2.556162276113522</v>
       </c>
       <c r="V36">
-        <v>2.625187953403605</v>
+        <v>2.514909258132065</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -5507,61 +5507,61 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <v>2.294355054381739</v>
+        <v>2.299148314745493</v>
       </c>
       <c r="E37">
-        <v>2.290071953600388</v>
+        <v>2.311687517536911</v>
       </c>
       <c r="F37">
-        <v>2.435144368270873</v>
+        <v>2.461099122137854</v>
       </c>
       <c r="G37">
-        <v>2.395719675854759</v>
+        <v>2.455870733130945</v>
       </c>
       <c r="H37">
-        <v>2.468635749790629</v>
+        <v>2.373994221933886</v>
       </c>
       <c r="I37">
-        <v>2.381536551946116</v>
+        <v>2.331992584938746</v>
       </c>
       <c r="J37">
-        <v>2.511033444391241</v>
+        <v>2.451468669450497</v>
       </c>
       <c r="K37">
-        <v>2.479016299986582</v>
+        <v>2.439017264163502</v>
       </c>
       <c r="L37">
-        <v>2.487175402915008</v>
+        <v>2.523571226796254</v>
       </c>
       <c r="M37">
-        <v>2.535560423177499</v>
+        <v>2.409129060274168</v>
       </c>
       <c r="N37">
-        <v>2.564340972170268</v>
+        <v>2.527737700449931</v>
       </c>
       <c r="O37">
-        <v>2.731702494114479</v>
+        <v>2.667391291694365</v>
       </c>
       <c r="P37">
-        <v>2.598523329778015</v>
+        <v>2.624865918391872</v>
       </c>
       <c r="Q37">
-        <v>2.802135339326496</v>
+        <v>2.764718788606726</v>
       </c>
       <c r="R37">
-        <v>2.790119083490815</v>
+        <v>2.557782531617031</v>
       </c>
       <c r="S37">
-        <v>2.77354134364743</v>
+        <v>2.745806551038734</v>
       </c>
       <c r="T37">
-        <v>2.767403874550999</v>
+        <v>2.663199451208195</v>
       </c>
       <c r="U37">
-        <v>2.791004285688998</v>
+        <v>2.654705261320579</v>
       </c>
       <c r="V37">
-        <v>2.736660162783412</v>
+        <v>2.689343470395702</v>
       </c>
     </row>
   </sheetData>
